--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36D8779A-F41B-6A48-BECA-53633475CD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3E75E0B1-0F42-174A-86C4-C303BE39D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$AJ$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -1093,7 +1092,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1143,10 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -11720,7 +11715,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11843,7 +11838,7 @@
       <c r="J2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" t="s">
         <v>183</v>
       </c>
       <c r="L2" s="15" t="s">
@@ -12191,7 +12186,7 @@
       <c r="L7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" t="s">
         <v>170</v>
       </c>
       <c r="N7" s="14">
@@ -12269,7 +12264,7 @@
       <c r="P8" s="10">
         <v>4</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="10">
         <v>7</v>
       </c>
       <c r="R8" s="8" t="d">
@@ -12295,7 +12290,7 @@
       <c r="A9" s="10">
         <v>2018</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" t="s">
         <v>166</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -12326,7 +12321,7 @@
       <c r="L9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" t="s">
         <v>167</v>
       </c>
       <c r="N9" s="14">
@@ -12668,7 +12663,7 @@
       <c r="P14" s="10">
         <v>3</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="10">
         <v>6</v>
       </c>
       <c r="R14" s="8" t="d">
@@ -12737,7 +12732,7 @@
       <c r="P15" s="10">
         <v>7</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="10">
         <v>7</v>
       </c>
       <c r="R15" s="12" t="d">
@@ -12806,7 +12801,7 @@
       <c r="P16" s="10">
         <v>8</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="10">
         <v>8</v>
       </c>
       <c r="R16" s="12" t="d">
@@ -12875,7 +12870,7 @@
       <c r="P17" s="10">
         <v>3</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="10">
         <v>10</v>
       </c>
       <c r="R17" s="12" t="d">
@@ -12941,7 +12936,7 @@
       <c r="P18" s="10">
         <v>5</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="10">
         <v>8</v>
       </c>
       <c r="R18" s="12" t="d">
@@ -13007,7 +13002,7 @@
       <c r="P19" s="10">
         <v>5</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="10">
         <v>9</v>
       </c>
       <c r="R19" s="12" t="d">
@@ -13030,7 +13025,7 @@
       <c r="A20" s="10">
         <v>2018</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" t="s">
         <v>171</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -13055,13 +13050,13 @@
       <c r="J20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" t="s">
         <v>174</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" t="s">
         <v>173</v>
       </c>
       <c r="N20" s="14">
@@ -13073,7 +13068,7 @@
       <c r="P20" s="10">
         <v>1</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="10">
         <v>6</v>
       </c>
       <c r="R20" s="12" t="d">
@@ -13137,7 +13132,7 @@
       <c r="P21" s="10">
         <v>4</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="10">
         <v>7</v>
       </c>
       <c r="R21" s="12" t="d">
@@ -13203,7 +13198,7 @@
       <c r="P22" s="10">
         <v>9</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="10">
         <v>11</v>
       </c>
       <c r="R22" s="12" t="d">

--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3E75E0B1-0F42-174A-86C4-C303BE39D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{67481920-3293-AB46-8F97-B7F16EFF0C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hatch_success_by_chick" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hatch_success_by_chick!$A$1:$AB$275</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$AJ$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$AJ$44</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1412" uniqueCount="184">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1416" uniqueCount="185">
   <si>
     <t>Nest</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t xml:space="preserve">NH4,NB3,NB2,NH2,NB1,NH1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No swaps at all </t>
   </si>
 </sst>
 </file>
@@ -11711,11 +11714,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11947,7 +11951,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2018</v>
       </c>
@@ -12081,8 +12085,11 @@
       <c r="V5" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2018</v>
       </c>
@@ -12151,7 +12158,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>2018</v>
       </c>
@@ -12217,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>2018</v>
       </c>
@@ -12286,7 +12293,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>2018</v>
       </c>
@@ -12417,6 +12424,9 @@
       <c r="V10" s="10">
         <v>3</v>
       </c>
+      <c r="W10" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -12483,8 +12493,11 @@
       <c r="V11" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>2018</v>
       </c>
@@ -12615,8 +12628,11 @@
       <c r="V13" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2018</v>
       </c>
@@ -12754,7 +12770,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2018</v>
       </c>
@@ -12823,7 +12839,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2018</v>
       </c>
@@ -12889,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2018</v>
       </c>
@@ -12955,7 +12971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>2018</v>
       </c>
@@ -13021,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
@@ -13085,7 +13101,7 @@
       </c>
       <c r="V20" s="10"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>2018</v>
       </c>
@@ -13151,7 +13167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>2018</v>
       </c>
@@ -13286,7 +13302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>2018</v>
       </c>
@@ -13352,7 +13368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>2018</v>
       </c>
@@ -13418,7 +13434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>2023</v>
       </c>
@@ -13489,7 +13505,7 @@
       <c r="AD26" s="4"/>
       <c r="AG26" s="3"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>2023</v>
       </c>
@@ -13560,7 +13576,7 @@
       <c r="AD27" s="4"/>
       <c r="AG27" s="3"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>2023</v>
       </c>
@@ -13699,7 +13715,7 @@
       <c r="AC29" s="4"/>
       <c r="AG29" s="3"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>2023</v>
       </c>
@@ -13769,7 +13785,7 @@
       <c r="AC30" s="4"/>
       <c r="AG30" s="3"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>2023</v>
       </c>
@@ -13909,7 +13925,7 @@
       <c r="AC32" s="4"/>
       <c r="AG32" s="3"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>2023</v>
       </c>
@@ -13978,7 +13994,7 @@
       </c>
       <c r="AG33" s="3"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>2023</v>
       </c>
@@ -14116,7 +14132,7 @@
       </c>
       <c r="AG35" s="3"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>2023</v>
       </c>
@@ -14188,7 +14204,7 @@
       <c r="AG36" s="3"/>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>2023</v>
       </c>
@@ -14257,7 +14273,7 @@
       </c>
       <c r="AG37" s="3"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>2023</v>
       </c>
@@ -14326,7 +14342,7 @@
       </c>
       <c r="AG38" s="3"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>2024</v>
       </c>
@@ -14395,7 +14411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>2024</v>
       </c>
@@ -14463,7 +14479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>2024</v>
       </c>
@@ -14527,7 +14543,7 @@
       </c>
       <c r="V41" s="10"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>2024</v>
       </c>
@@ -14595,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>2024</v>
       </c>
@@ -14663,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>2024</v>
       </c>
@@ -15123,7 +15139,13 @@
       <c r="B145" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ43" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}"/>
+  <autoFilter ref="A1:AJ44" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{634FD6BD-612C-634B-84ED-82F913B3F26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DAE6A200-6DFD-414A-A376-F9B5E7F7717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$44</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -1471,11 +1470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
-  <dimension ref="A1:AK141"/>
+  <dimension ref="A1:AK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2629,7 +2628,7 @@
       </c>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>2018</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2018</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>2018</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>2018</v>
       </c>
@@ -2977,35 +2976,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>55</v>
+        <v>2018</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="5" t="d">
-        <v>2023-08-19</v>
-      </c>
-      <c r="E22" s="8">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="d">
+        <v>2018-09-19</v>
+      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="8">
         <v>8</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="6" t="d">
-        <v>2023-09-04</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="H22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>83</v>
       </c>
       <c r="K22" s="8" t="s">
@@ -3015,285 +3012,286 @@
         <v>83</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="N22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
         <v>8</v>
-      </c>
-      <c r="P22" s="8">
-        <v>0</v>
       </c>
       <c r="Q22" s="8">
         <v>8</v>
       </c>
-      <c r="R22" s="7" t="d">
-        <v>2023-09-16</v>
-      </c>
-      <c r="S22" s="7" t="d">
-        <v>2023-09-20</v>
+      <c r="R22" s="6" t="d">
+        <v>2018-10-14</v>
+      </c>
+      <c r="S22" s="6" t="d">
+        <v>2018-10-20</v>
       </c>
       <c r="T22" s="8">
+        <v>5</v>
+      </c>
+      <c r="U22" s="8">
+        <v>7</v>
+      </c>
+      <c r="V22" s="8">
+        <v>7</v>
+      </c>
+      <c r="W22" s="8">
+        <v>3</v>
+      </c>
+      <c r="X22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="d">
+        <v>2018-09-07</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
         <v>6</v>
       </c>
-      <c r="U22" s="14">
-        <v>5</v>
-      </c>
-      <c r="V22" s="8">
+      <c r="G23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>6</v>
+      </c>
+      <c r="R23" s="10" t="d">
+        <v>2018-09-28</v>
+      </c>
+      <c r="S23" s="10" t="d">
+        <v>2018-10-01</v>
+      </c>
+      <c r="T23" s="8">
+        <v>3</v>
+      </c>
+      <c r="U23" s="8">
         <v>4</v>
       </c>
-      <c r="W22" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AH22" s="1"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="d">
-        <v>2023-08-19</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="V23" s="8">
+        <v>6</v>
+      </c>
+      <c r="W23" s="8">
+        <v>4</v>
+      </c>
+      <c r="X23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="8">
-        <v>8</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="6" t="d">
-        <v>2023-09-04</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M23" t="s">
-        <v>120</v>
-      </c>
-      <c r="N23" s="12">
-        <v>1</v>
-      </c>
-      <c r="O23" s="8">
-        <v>5</v>
-      </c>
-      <c r="P23" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>8</v>
-      </c>
-      <c r="R23" s="7" t="d">
-        <v>2023-09-16</v>
-      </c>
-      <c r="S23" s="7" t="d">
-        <v>2023-09-16</v>
-      </c>
-      <c r="T23" s="8">
-        <v>10</v>
-      </c>
-      <c r="U23" s="14">
-        <v>1</v>
-      </c>
-      <c r="V23" s="8">
-        <v>1</v>
-      </c>
-      <c r="W23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AH23" s="1"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="5" t="d">
-        <v>2023-08-20</v>
+      <c r="D24" s="3" t="d">
+        <v>2018-08-18</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8">
+        <v>7</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>7</v>
+      </c>
+      <c r="R24" s="6" t="d">
+        <v>2018-09-20</v>
+      </c>
+      <c r="S24" s="6" t="d">
+        <v>2018-09-24</v>
+      </c>
+      <c r="T24" s="8">
+        <v>4</v>
+      </c>
+      <c r="U24" s="8">
         <v>5</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="6" t="d">
-        <v>2023-09-04</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M24" t="s">
-        <v>153</v>
-      </c>
-      <c r="N24" s="12">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8">
-        <v>5</v>
-      </c>
-      <c r="P24" s="8">
+      <c r="V24" s="8">
+        <v>7</v>
+      </c>
+      <c r="W24" s="8">
+        <v>3</v>
+      </c>
+      <c r="X24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="d">
+        <v>2018-09-23</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
+        <v>7</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" s="12">
         <v>0</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>5</v>
-      </c>
-      <c r="R24" s="10" t="d">
-        <v>2023-09-11</v>
-      </c>
-      <c r="S24" s="10" t="d">
-        <v>2023-09-13</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="U24" s="14">
-        <v>3</v>
-      </c>
-      <c r="V24" s="8">
-        <v>4</v>
-      </c>
-      <c r="W24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AH24" s="1"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="5" t="d">
-        <v>2023-08-20</v>
-      </c>
-      <c r="E25" s="8">
-        <v>8</v>
-      </c>
-      <c r="F25" s="8">
-        <v>8</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="6" t="d">
-        <v>2023-09-04</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M25" t="s">
-        <v>121</v>
-      </c>
-      <c r="N25" s="12">
-        <v>1</v>
       </c>
       <c r="O25" s="8">
         <v>0</v>
       </c>
       <c r="P25" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25" s="10" t="d">
-        <v>2023-09-04</v>
+        <v>2018-10-18</v>
       </c>
       <c r="S25" s="10" t="d">
-        <v>2023-09-14</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>83</v>
+        <v>2018-10-20</v>
+      </c>
+      <c r="T25" s="8">
+        <v>4</v>
       </c>
       <c r="U25" s="8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="V25" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W25" s="8">
-        <v>4</v>
-      </c>
-      <c r="AD25" s="2"/>
-      <c r="AH25" s="1"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="X25" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>2023</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D26" s="5" t="d">
-        <v>2023-09-01</v>
+        <v>2023-08-19</v>
       </c>
       <c r="E26" s="8">
+        <v>6</v>
+      </c>
+      <c r="F26" s="8">
         <v>8</v>
-      </c>
-      <c r="F26" s="8">
-        <v>12</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>102</v>
       </c>
       <c r="H26" s="6" t="d">
-        <v>2023-09-15</v>
+        <v>2023-09-04</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>83</v>
@@ -3304,69 +3302,70 @@
       <c r="K26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="8" t="s">
         <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N26" s="12">
         <v>1</v>
       </c>
       <c r="O26" s="8">
+        <v>8</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>8</v>
+      </c>
+      <c r="R26" s="7" t="d">
+        <v>2023-09-16</v>
+      </c>
+      <c r="S26" s="7" t="d">
+        <v>2023-09-20</v>
+      </c>
+      <c r="T26" s="8">
+        <v>6</v>
+      </c>
+      <c r="U26" s="14">
         <v>5</v>
       </c>
-      <c r="P26" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>10</v>
-      </c>
-      <c r="R26" s="10" t="d">
-        <v>2023-09-30</v>
-      </c>
-      <c r="S26" s="10" t="d">
-        <v>2023-10-04</v>
-      </c>
-      <c r="T26" s="8">
+      <c r="V26" s="8">
         <v>4</v>
       </c>
-      <c r="U26" s="8">
-        <v>5</v>
-      </c>
-      <c r="V26" s="8">
-        <v>3</v>
-      </c>
       <c r="W26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>2023</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="6" t="d">
-        <v>2023-09-07</v>
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="d">
+        <v>2023-08-19</v>
       </c>
       <c r="E27" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H27" s="6" t="d">
-        <v>2023-09-15</v>
+        <v>2023-09-04</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>83</v>
@@ -3381,65 +3380,64 @@
         <v>83</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N27" s="12">
         <v>1</v>
       </c>
       <c r="O27" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P27" s="8">
         <v>3</v>
       </c>
       <c r="Q27" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27" s="7" t="d">
-        <v>2023-10-03</v>
+        <v>2023-09-16</v>
       </c>
       <c r="S27" s="7" t="d">
-        <v>2023-10-08</v>
+        <v>2023-09-16</v>
       </c>
       <c r="T27" s="8">
-        <v>9</v>
-      </c>
-      <c r="U27" s="8">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="U27" s="14">
+        <v>1</v>
       </c>
       <c r="V27" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W27" s="8">
         <v>0</v>
       </c>
       <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>2023</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="6" t="d">
-        <v>2023-09-05</v>
-      </c>
-      <c r="E28" s="8">
-        <v>7</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D28" s="5" t="d">
+        <v>2023-08-20</v>
+      </c>
+      <c r="E28" s="8"/>
       <c r="F28" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="H28" s="6" t="d">
-        <v>2023-09-15</v>
+        <v>2023-09-04</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>83</v>
@@ -3454,65 +3452,66 @@
         <v>83</v>
       </c>
       <c r="M28" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="N28" s="12">
         <v>1</v>
       </c>
       <c r="O28" s="8">
+        <v>5</v>
+      </c>
+      <c r="P28" s="8">
         <v>0</v>
       </c>
-      <c r="P28" s="8">
-        <v>9</v>
-      </c>
       <c r="Q28" s="8">
-        <v>9</v>
-      </c>
-      <c r="R28" s="7" t="d">
-        <v>2023-10-02</v>
-      </c>
-      <c r="S28" s="7" t="d">
-        <v>2023-10-04</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U28" s="8">
+        <v>5</v>
+      </c>
+      <c r="R28" s="10" t="d">
+        <v>2023-09-11</v>
+      </c>
+      <c r="S28" s="10" t="d">
+        <v>2023-09-13</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" s="14">
+        <v>3</v>
+      </c>
+      <c r="V28" s="8">
         <v>4</v>
-      </c>
-      <c r="V28" s="8">
-        <v>7</v>
       </c>
       <c r="W28" s="8">
         <v>0</v>
       </c>
       <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2023</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D29" s="5" t="d">
-        <v>2023-09-29</v>
+        <v>2023-08-20</v>
       </c>
       <c r="E29" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" s="8">
         <v>8</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="H29" s="6" t="d">
-        <v>2023-10-07</v>
+        <v>2023-09-04</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>83</v>
@@ -3527,64 +3526,65 @@
         <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N29" s="12">
         <v>1</v>
       </c>
       <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>8</v>
+      </c>
+      <c r="R29" s="10" t="d">
+        <v>2023-09-04</v>
+      </c>
+      <c r="S29" s="10" t="d">
+        <v>2023-09-14</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U29" s="8">
+        <v>11</v>
+      </c>
+      <c r="V29" s="8">
         <v>5</v>
       </c>
-      <c r="P29" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>7</v>
-      </c>
-      <c r="R29" s="6" t="d">
-        <v>2023-10-25</v>
-      </c>
-      <c r="S29" s="6" t="d">
-        <v>2023-10-27</v>
-      </c>
-      <c r="T29" s="8">
+      <c r="W29" s="8">
         <v>4</v>
       </c>
-      <c r="U29" s="8">
-        <v>3</v>
-      </c>
-      <c r="V29" s="8">
-        <v>4</v>
-      </c>
-      <c r="W29" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD29" s="2"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>2023</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D30" s="5" t="d">
-        <v>2023-10-05</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>67</v>
+        <v>2023-09-01</v>
+      </c>
+      <c r="E30" s="8">
+        <v>8</v>
       </c>
       <c r="F30" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H30" s="6" t="d">
-        <v>2023-10-07</v>
+        <v>2023-09-15</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>83</v>
@@ -3595,11 +3595,11 @@
       <c r="K30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="13" t="s">
         <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N30" s="12">
         <v>1</v>
@@ -3608,55 +3608,56 @@
         <v>5</v>
       </c>
       <c r="P30" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>10</v>
+      </c>
+      <c r="R30" s="10" t="d">
+        <v>2023-09-30</v>
+      </c>
+      <c r="S30" s="10" t="d">
+        <v>2023-10-04</v>
+      </c>
+      <c r="T30" s="8">
+        <v>4</v>
+      </c>
+      <c r="U30" s="8">
+        <v>5</v>
+      </c>
+      <c r="V30" s="8">
         <v>3</v>
       </c>
-      <c r="Q30" s="8">
-        <v>8</v>
-      </c>
-      <c r="R30" s="6" t="d">
-        <v>2023-10-18</v>
-      </c>
-      <c r="S30" s="6" t="d">
-        <v>2023-10-29</v>
-      </c>
-      <c r="T30" s="8">
-        <v>12</v>
-      </c>
-      <c r="U30" s="8">
-        <v>12</v>
-      </c>
-      <c r="V30" s="8">
-        <v>5</v>
-      </c>
       <c r="W30" s="8">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>2023</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D31" s="6" t="d">
-        <v>2023-10-05</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>70</v>
+        <v>2023-09-07</v>
+      </c>
+      <c r="E31" s="8">
+        <v>5</v>
       </c>
       <c r="F31" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H31" s="6" t="d">
-        <v>2023-10-07</v>
+        <v>2023-09-15</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>83</v>
@@ -3667,68 +3668,69 @@
       <c r="K31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="8" t="s">
         <v>83</v>
       </c>
       <c r="M31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N31" s="12">
         <v>1</v>
       </c>
       <c r="O31" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P31" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="8">
-        <v>8</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="T31" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U31" s="8" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="R31" s="7" t="d">
+        <v>2023-10-03</v>
+      </c>
+      <c r="S31" s="7" t="d">
+        <v>2023-10-08</v>
+      </c>
+      <c r="T31" s="8">
+        <v>9</v>
+      </c>
+      <c r="U31" s="8">
+        <v>6</v>
       </c>
       <c r="V31" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="8">
         <v>0</v>
       </c>
+      <c r="AD31" s="2"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>2023</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="5" t="d">
-        <v>2023-10-12</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="d">
+        <v>2023-09-05</v>
+      </c>
+      <c r="E32" s="8">
+        <v>7</v>
       </c>
       <c r="F32" s="8">
         <v>9</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="H32" s="6" t="d">
-        <v>2023-10-22</v>
+        <v>2023-09-15</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>83</v>
@@ -3743,67 +3745,65 @@
         <v>83</v>
       </c>
       <c r="M32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N32" s="12">
         <v>1</v>
       </c>
       <c r="O32" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q32" s="8">
-        <v>8</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="S32" s="6" t="d">
-        <v>2023-11-06</v>
-      </c>
-      <c r="T32" s="8">
+        <v>9</v>
+      </c>
+      <c r="R32" s="7" t="d">
+        <v>2023-10-02</v>
+      </c>
+      <c r="S32" s="7" t="d">
+        <v>2023-10-04</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="U32" s="8">
         <v>4</v>
       </c>
-      <c r="U32" s="8">
-        <v>2</v>
-      </c>
       <c r="V32" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W32" s="8">
         <v>0</v>
       </c>
-      <c r="Y32" s="2"/>
-      <c r="AB32" s="2"/>
+      <c r="AD32" s="2"/>
       <c r="AH32" s="1"/>
-      <c r="AK32" s="2"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>2023</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D33" s="5" t="d">
-        <v>2023-10-17</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>86</v>
+        <v>2023-09-29</v>
+      </c>
+      <c r="E33" s="8">
+        <v>5</v>
       </c>
       <c r="F33" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H33" s="6" t="d">
-        <v>2023-10-22</v>
+        <v>2023-10-07</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>83</v>
@@ -3818,64 +3818,64 @@
         <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N33" s="12">
         <v>1</v>
       </c>
       <c r="O33" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P33" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="8">
         <v>7</v>
       </c>
-      <c r="R33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="T33" s="9">
-        <v>8</v>
-      </c>
-      <c r="U33" s="8" t="s">
-        <v>83</v>
+      <c r="R33" s="6" t="d">
+        <v>2023-10-25</v>
+      </c>
+      <c r="S33" s="6" t="d">
+        <v>2023-10-27</v>
+      </c>
+      <c r="T33" s="8">
+        <v>4</v>
+      </c>
+      <c r="U33" s="8">
+        <v>3</v>
       </c>
       <c r="V33" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W33" s="8">
         <v>0</v>
       </c>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>2023</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D34" s="5" t="d">
-        <v>2023-10-20</v>
-      </c>
-      <c r="E34" s="8">
-        <v>5</v>
+        <v>2023-10-05</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="F34" s="8">
         <v>8</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="H34" s="6" t="d">
-        <v>2023-10-22</v>
+        <v>2023-10-07</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>83</v>
@@ -3890,62 +3890,64 @@
         <v>83</v>
       </c>
       <c r="M34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N34" s="12">
         <v>1</v>
       </c>
       <c r="O34" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P34" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="8">
         <v>8</v>
       </c>
       <c r="R34" s="6" t="d">
-        <v>2023-10-31</v>
+        <v>2023-10-18</v>
       </c>
       <c r="S34" s="6" t="d">
-        <v>2023-11-03</v>
-      </c>
-      <c r="T34" s="6" t="s">
-        <v>83</v>
+        <v>2023-10-29</v>
+      </c>
+      <c r="T34" s="8">
+        <v>12</v>
       </c>
       <c r="U34" s="8">
+        <v>12</v>
+      </c>
+      <c r="V34" s="8">
+        <v>5</v>
+      </c>
+      <c r="W34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="1"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="6" t="d">
+        <v>2023-10-05</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="8">
+        <v>8</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V34" s="8">
-        <v>1</v>
-      </c>
-      <c r="W34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="1"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="4" t="d">
-        <v>2024-08-24</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8">
-        <v>7</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="H35" s="6" t="d">
-        <v>2024-09-06</v>
+        <v>2023-10-07</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>83</v>
@@ -3956,70 +3958,68 @@
       <c r="K35" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="13" t="s">
         <v>83</v>
       </c>
       <c r="M35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N35" s="12">
         <v>1</v>
       </c>
       <c r="O35" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P35" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="8">
-        <v>7</v>
-      </c>
-      <c r="R35" s="6" t="d">
-        <v>2024-09-10</v>
-      </c>
-      <c r="S35" s="6" t="d">
-        <v>2024-09-11</v>
-      </c>
-      <c r="T35" s="8">
-        <v>2</v>
-      </c>
-      <c r="U35" s="8">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="V35" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W35" s="8">
         <v>0</v>
       </c>
-      <c r="X35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>2024</v>
+      <c r="AH35" s="1"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>2023</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4" t="d">
-        <v>2024-08-23</v>
-      </c>
-      <c r="E36" s="8">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="D36" s="5" t="d">
+        <v>2023-10-12</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F36" s="8">
         <v>9</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H36" s="6" t="d">
-        <v>2024-09-06</v>
+        <v>2023-10-22</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>83</v>
@@ -4030,65 +4030,71 @@
       <c r="K36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="8" t="s">
         <v>83</v>
       </c>
       <c r="M36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N36" s="12">
         <v>1</v>
       </c>
       <c r="O36" s="8">
+        <v>3</v>
+      </c>
+      <c r="P36" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>8</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S36" s="6" t="d">
+        <v>2023-11-06</v>
+      </c>
+      <c r="T36" s="8">
         <v>4</v>
       </c>
-      <c r="P36" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>7</v>
-      </c>
-      <c r="R36" s="7" t="d">
-        <v>2024-09-10</v>
-      </c>
-      <c r="S36" s="7" t="d">
-        <v>2024-09-17</v>
-      </c>
-      <c r="T36" s="8">
-        <v>8</v>
-      </c>
       <c r="U36" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V36" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AH36" s="1"/>
+      <c r="AK36" s="2"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="5" t="d">
+        <v>2023-10-17</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>2024</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="4" t="d">
-        <v>2024-08-24</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8">
-        <v>3</v>
-      </c>
       <c r="G37" s="8" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="H37" s="6" t="d">
-        <v>2024-09-06</v>
+        <v>2023-10-22</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>83</v>
@@ -4103,63 +4109,64 @@
         <v>83</v>
       </c>
       <c r="M37" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="N37" s="12">
         <v>1</v>
       </c>
       <c r="O37" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P37" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="8">
+        <v>7</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T37" s="9">
+        <v>8</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="1"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="5" t="d">
+        <v>2023-10-20</v>
+      </c>
+      <c r="E38" s="8">
+        <v>5</v>
+      </c>
+      <c r="F38" s="8">
+        <v>8</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R37" s="6" t="d">
-        <v>2024-09-11</v>
-      </c>
-      <c r="S37" s="6" t="d">
-        <v>2024-09-11</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U37" s="8">
-        <v>1</v>
-      </c>
-      <c r="V37" s="8">
-        <v>3</v>
-      </c>
-      <c r="W37" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>2024</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="6" t="d">
-        <v>2024-09-08</v>
-      </c>
-      <c r="E38" s="8">
-        <v>6</v>
-      </c>
-      <c r="F38" s="8">
-        <v>9</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="H38" s="6" t="d">
-        <v>2024-09-27</v>
+        <v>2023-10-22</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>83</v>
@@ -4174,63 +4181,62 @@
         <v>83</v>
       </c>
       <c r="M38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N38" s="12">
         <v>1</v>
       </c>
       <c r="O38" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P38" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="8">
         <v>8</v>
       </c>
       <c r="R38" s="6" t="d">
-        <v>2024-10-01</v>
+        <v>2023-10-31</v>
       </c>
       <c r="S38" s="6" t="d">
-        <v>2024-10-01</v>
-      </c>
-      <c r="T38" s="8">
-        <v>2</v>
+        <v>2023-11-03</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="U38" s="8">
+        <v>4</v>
+      </c>
+      <c r="V38" s="8">
         <v>1</v>
-      </c>
-      <c r="V38" s="8">
-        <v>4</v>
       </c>
       <c r="W38" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH38" s="1"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>2024</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="6" t="d">
-        <v>2024-09-21</v>
-      </c>
-      <c r="E39" s="8">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D39" s="4" t="d">
+        <v>2024-08-24</v>
+      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" s="6" t="d">
-        <v>2024-09-27</v>
+        <v>2024-09-06</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>83</v>
@@ -4245,7 +4251,7 @@
         <v>83</v>
       </c>
       <c r="M39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N39" s="12">
         <v>1</v>
@@ -4254,22 +4260,22 @@
         <v>5</v>
       </c>
       <c r="P39" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R39" s="6" t="d">
-        <v>2024-09-28</v>
+        <v>2024-09-10</v>
       </c>
       <c r="S39" s="6" t="d">
-        <v>2024-10-09</v>
+        <v>2024-09-11</v>
       </c>
       <c r="T39" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="U39" s="8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="V39" s="8">
         <v>6</v>
@@ -4277,31 +4283,34 @@
       <c r="W39" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="X39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>2024</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="4" t="d">
+        <v>2024-08-23</v>
+      </c>
+      <c r="E40" s="8">
+        <v>10</v>
+      </c>
+      <c r="F40" s="8">
         <v>9</v>
       </c>
-      <c r="D40" s="6" t="d">
-        <v>2024-09-15</v>
-      </c>
-      <c r="E40" s="8">
-        <v>3</v>
-      </c>
-      <c r="F40" s="8">
-        <v>5</v>
-      </c>
       <c r="G40" s="8" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="H40" s="6" t="d">
-        <v>2024-09-27</v>
+        <v>2024-09-06</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>83</v>
@@ -4312,64 +4321,326 @@
       <c r="K40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="13" t="s">
         <v>83</v>
       </c>
       <c r="M40" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="N40" s="12">
         <v>1</v>
       </c>
       <c r="O40" s="8">
+        <v>4</v>
+      </c>
+      <c r="P40" s="8">
         <v>3</v>
       </c>
-      <c r="P40" s="8">
+      <c r="Q40" s="8">
+        <v>7</v>
+      </c>
+      <c r="R40" s="7" t="d">
+        <v>2024-09-10</v>
+      </c>
+      <c r="S40" s="7" t="d">
+        <v>2024-09-17</v>
+      </c>
+      <c r="T40" s="8">
+        <v>8</v>
+      </c>
+      <c r="U40" s="8">
+        <v>7</v>
+      </c>
+      <c r="V40" s="8">
+        <v>7</v>
+      </c>
+      <c r="W40" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>2024</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="4" t="d">
+        <v>2024-08-24</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8">
+        <v>3</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="6" t="d">
+        <v>2024-09-06</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" t="s">
+        <v>149</v>
+      </c>
+      <c r="N41" s="12">
+        <v>1</v>
+      </c>
+      <c r="O41" s="8">
         <v>2</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="P41" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>4</v>
+      </c>
+      <c r="R41" s="6" t="d">
+        <v>2024-09-11</v>
+      </c>
+      <c r="S41" s="6" t="d">
+        <v>2024-09-11</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U41" s="8">
+        <v>1</v>
+      </c>
+      <c r="V41" s="8">
+        <v>3</v>
+      </c>
+      <c r="W41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>2024</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="6" t="d">
+        <v>2024-09-08</v>
+      </c>
+      <c r="E42" s="8">
+        <v>6</v>
+      </c>
+      <c r="F42" s="8">
+        <v>9</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="6" t="d">
+        <v>2024-09-27</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" t="s">
+        <v>133</v>
+      </c>
+      <c r="N42" s="12">
+        <v>1</v>
+      </c>
+      <c r="O42" s="8">
+        <v>3</v>
+      </c>
+      <c r="P42" s="8">
         <v>5</v>
       </c>
-      <c r="R40" s="6" t="d">
+      <c r="Q42" s="8">
+        <v>8</v>
+      </c>
+      <c r="R42" s="6" t="d">
+        <v>2024-10-01</v>
+      </c>
+      <c r="S42" s="6" t="d">
+        <v>2024-10-01</v>
+      </c>
+      <c r="T42" s="8">
+        <v>2</v>
+      </c>
+      <c r="U42" s="8">
+        <v>1</v>
+      </c>
+      <c r="V42" s="8">
+        <v>4</v>
+      </c>
+      <c r="W42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>2024</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="6" t="d">
+        <v>2024-09-21</v>
+      </c>
+      <c r="E43" s="8">
+        <v>5</v>
+      </c>
+      <c r="F43" s="8">
+        <v>8</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="6" t="d">
+        <v>2024-09-27</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43" t="s">
+        <v>134</v>
+      </c>
+      <c r="N43" s="12">
+        <v>1</v>
+      </c>
+      <c r="O43" s="8">
+        <v>5</v>
+      </c>
+      <c r="P43" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>8</v>
+      </c>
+      <c r="R43" s="6" t="d">
+        <v>2024-09-28</v>
+      </c>
+      <c r="S43" s="6" t="d">
+        <v>2024-10-09</v>
+      </c>
+      <c r="T43" s="8">
+        <v>11</v>
+      </c>
+      <c r="U43" s="8">
+        <v>12</v>
+      </c>
+      <c r="V43" s="8">
+        <v>6</v>
+      </c>
+      <c r="W43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>2024</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="d">
+        <v>2024-09-15</v>
+      </c>
+      <c r="E44" s="8">
+        <v>3</v>
+      </c>
+      <c r="F44" s="8">
+        <v>5</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="6" t="d">
+        <v>2024-09-27</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44" t="s">
+        <v>150</v>
+      </c>
+      <c r="N44" s="12">
+        <v>1</v>
+      </c>
+      <c r="O44" s="8">
+        <v>3</v>
+      </c>
+      <c r="P44" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>5</v>
+      </c>
+      <c r="R44" s="6" t="d">
         <v>2024-10-03</v>
       </c>
-      <c r="S40" s="6" t="d">
+      <c r="S44" s="6" t="d">
         <v>2024-10-08</v>
       </c>
-      <c r="T40" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U40" s="8">
+      <c r="T44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U44" s="8">
         <v>6</v>
       </c>
-      <c r="V40" s="8">
+      <c r="V44" s="8">
         <v>3</v>
       </c>
-      <c r="W40" s="8">
+      <c r="W44" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="W44" s="2"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="W45" s="2"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="W46" s="2"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-      <c r="E47" s="2"/>
-      <c r="W47" s="2"/>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="E48" s="2"/>
       <c r="W48" s="2"/>
@@ -4431,18 +4702,22 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
+      <c r="E60" s="2"/>
       <c r="W60" s="2"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
+      <c r="E61" s="2"/>
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
+      <c r="E62" s="2"/>
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
+      <c r="E63" s="2"/>
       <c r="W63" s="2"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.2">
@@ -4575,471 +4850,196 @@
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W96" s="2"/>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W97" s="2"/>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W98" s="2"/>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W99" s="2"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
-      <c r="G110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="Q119" s="2"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="Q120" s="2"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="Q121" s="2"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="Q122" s="2"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="Q123" s="2"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="Q124" s="2"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="Q125" s="2"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="Q126" s="2"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="Q127" s="2"/>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="Q128" s="2"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="Q129" s="2"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="Q130" s="2"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
     </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK40" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7161DAB1-F3D2-2F4A-8653-CD97B3F128E1}">
-  <dimension ref="A1:W4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="d">
-        <v>2018-09-19</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8">
-        <v>8</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="12">
-        <v>0</v>
-      </c>
-      <c r="O1" s="8">
-        <v>0</v>
-      </c>
-      <c r="P1" s="8">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="8">
-        <v>8</v>
-      </c>
-      <c r="R1" s="6" t="d">
-        <v>2018-10-14</v>
-      </c>
-      <c r="S1" s="6" t="d">
-        <v>2018-10-20</v>
-      </c>
-      <c r="T1" s="8">
-        <v>5</v>
-      </c>
-      <c r="U1" s="8">
-        <v>7</v>
-      </c>
-      <c r="V1" s="8">
-        <v>3</v>
-      </c>
-      <c r="W1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="d">
-        <v>2018-09-07</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>6</v>
-      </c>
-      <c r="R2" s="10" t="d">
-        <v>2018-09-28</v>
-      </c>
-      <c r="S2" s="10" t="d">
-        <v>2018-10-01</v>
-      </c>
-      <c r="T2" s="8">
-        <v>3</v>
-      </c>
-      <c r="U2" s="8">
-        <v>6</v>
-      </c>
-      <c r="V2" s="8">
-        <v>3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="d">
-        <v>2018-08-18</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>7</v>
-      </c>
-      <c r="R3" s="6" t="d">
-        <v>2018-09-20</v>
-      </c>
-      <c r="S3" s="6" t="d">
-        <v>2018-09-24</v>
-      </c>
-      <c r="T3" s="8">
-        <v>4</v>
-      </c>
-      <c r="U3" s="8">
-        <v>7</v>
-      </c>
-      <c r="V3" s="8">
-        <v>3</v>
-      </c>
-      <c r="W3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="d">
-        <v>2018-09-23</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <v>7</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>7</v>
-      </c>
-      <c r="R4" s="10" t="d">
-        <v>2018-10-18</v>
-      </c>
-      <c r="S4" s="10" t="d">
-        <v>2018-10-20</v>
-      </c>
-      <c r="T4" s="8">
-        <v>4</v>
-      </c>
-      <c r="U4" s="8">
-        <v>5</v>
-      </c>
-      <c r="V4" s="8">
-        <v>2</v>
-      </c>
-      <c r="W4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="A1:AK44" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DAE6A200-6DFD-414A-A376-F9B5E7F7717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0F5CB93-419D-FE4D-9A7C-D0BF3E75C8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>M16 East</t>
   </si>
   <si>
-    <t>Surival_60</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>Estimated_hatch_spread</t>
+  </si>
+  <si>
+    <t>Survival_60</t>
   </si>
 </sst>
 </file>
@@ -1472,9 +1472,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
   <dimension ref="A1:AK145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1502,70 +1502,70 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" t="s">
-        <v>101</v>
-      </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" t="s">
         <v>81</v>
       </c>
-      <c r="S1" t="s">
-        <v>82</v>
-      </c>
       <c r="T1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
       </c>
       <c r="W1" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="X1" t="s">
         <v>26</v>
@@ -1576,10 +1576,10 @@
         <v>2018</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="d">
         <v>2018-08-22</v>
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="6" t="d">
         <v>2018-09-03</v>
@@ -1598,16 +1598,16 @@
         <v>2018-09-07</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N2" s="12">
         <v>1</v>
@@ -1622,16 +1622,16 @@
         <v>6</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V2" s="8">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1648,10 +1648,10 @@
         <v>2018</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="d">
         <v>2018-08-18</v>
@@ -1661,25 +1661,25 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="6" t="d">
         <v>2018-09-03</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N3" s="12">
         <v>1</v>
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V3" s="8">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1720,7 +1720,7 @@
         <v>2018</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>3</v>
@@ -1733,25 +1733,25 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="6" t="d">
         <v>2018-09-13</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N4" s="12">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="X4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>2018</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>8</v>
@@ -1805,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="6" t="d">
         <v>2018-09-17</v>
@@ -1814,16 +1814,16 @@
         <v>2018-09-30</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="N5" s="8">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1864,10 +1864,10 @@
         <v>2018</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="D6" s="3" t="d">
         <v>2018-09-15</v>
@@ -1877,25 +1877,25 @@
         <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="6" t="d">
         <v>2018-09-17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N6" s="12">
         <v>1</v>
@@ -1910,16 +1910,16 @@
         <v>9</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V6" s="8">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>2018</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
@@ -1946,25 +1946,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="6" t="d">
         <v>2018-09-17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N7" s="12">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -2005,10 +2005,10 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="3" t="d">
         <v>2018-09-12</v>
@@ -2018,25 +2018,25 @@
         <v>5</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="6" t="d">
         <v>2018-09-17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N8" s="12">
         <v>1</v>
@@ -2051,16 +2051,16 @@
         <v>5</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V8" s="8">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>2018</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>12</v>
@@ -2087,25 +2087,25 @@
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="6" t="d">
         <v>2018-09-01</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N9" s="12">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>2018</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>14</v>
@@ -2156,25 +2156,25 @@
         <v>5</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H10" s="6" t="d">
         <v>2018-09-01</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N10" s="12">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="X10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -2215,7 +2215,7 @@
         <v>2018</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>15</v>
@@ -2228,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="6" t="d">
         <v>2018-08-30</v>
@@ -2237,16 +2237,16 @@
         <v>2018-09-01</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N11" s="8">
         <v>2</v>
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="X11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
         <v>2018</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
@@ -2300,25 +2300,25 @@
         <v>8</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" s="6" t="d">
         <v>2018-08-28</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N12" s="12">
         <v>1</v>
@@ -2351,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="X12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2359,7 +2359,7 @@
         <v>2018</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>17</v>
@@ -2372,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="6" t="d">
         <v>2018-09-13</v>
@@ -2381,16 +2381,16 @@
         <v>2018-09-17</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
         <v>140</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" t="s">
-        <v>141</v>
       </c>
       <c r="N13" s="8">
         <v>2</v>
@@ -2428,7 +2428,7 @@
         <v>2018</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>6</v>
@@ -2441,25 +2441,25 @@
         <v>8</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" s="6" t="d">
         <v>2018-09-17</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N14" s="12">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>2018</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>18</v>
@@ -2510,25 +2510,25 @@
         <v>8</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="6" t="d">
         <v>2018-09-17</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N15" s="12">
         <v>1</v>
@@ -2566,10 +2566,10 @@
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3" t="d">
         <v>2018-09-17</v>
@@ -2579,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="6" t="d">
         <v>2018-09-22</v>
@@ -2588,16 +2588,16 @@
         <v>2018-09-27</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N16" s="12">
         <v>2</v>
@@ -2633,7 +2633,7 @@
         <v>2018</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>19</v>
@@ -2646,7 +2646,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="6" t="d">
         <v>2018-09-22</v>
@@ -2655,16 +2655,16 @@
         <v>2018-09-25</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N17" s="8">
         <v>2</v>
@@ -2702,7 +2702,7 @@
         <v>2018</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>20</v>
@@ -2715,25 +2715,25 @@
         <v>12</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="6" t="d">
         <v>2018-09-27</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N18" s="12">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
         <v>2018</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>21</v>
@@ -2787,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" s="6" t="d">
         <v>2018-09-15</v>
@@ -2796,16 +2796,16 @@
         <v>2018-09-17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N19" s="8">
         <v>2</v>
@@ -2843,7 +2843,7 @@
         <v>2018</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>22</v>
@@ -2856,25 +2856,25 @@
         <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" s="6" t="d">
         <v>2018-09-22</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N20" s="8">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>2018</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>23</v>
@@ -2925,7 +2925,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" s="6" t="d">
         <v>2018-09-19</v>
@@ -2937,13 +2937,13 @@
         <v>2018-09-30</v>
       </c>
       <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
         <v>170</v>
       </c>
-      <c r="L21" t="s">
-        <v>171</v>
-      </c>
       <c r="M21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N21" s="12">
         <v>3</v>
@@ -2981,7 +2981,7 @@
         <v>2018</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
@@ -2994,25 +2994,25 @@
         <v>8</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N22" s="12">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="X22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z22" s="8"/>
     </row>
@@ -3054,7 +3054,7 @@
         <v>2018</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>11</v>
@@ -3067,25 +3067,25 @@
         <v>6</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>4</v>
       </c>
       <c r="X23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z23" s="8"/>
     </row>
@@ -3127,7 +3127,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>7</v>
@@ -3140,25 +3140,25 @@
         <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>3</v>
       </c>
       <c r="X24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z24" s="8"/>
     </row>
@@ -3200,7 +3200,7 @@
         <v>2018</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>13</v>
@@ -3213,25 +3213,25 @@
         <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N25" s="12">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="X25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z25" s="8"/>
     </row>
@@ -3273,7 +3273,7 @@
         <v>2023</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>5</v>
@@ -3288,25 +3288,25 @@
         <v>8</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H26" s="6" t="d">
         <v>2023-09-04</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N26" s="12">
         <v>1</v>
@@ -3347,7 +3347,7 @@
         <v>2023</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>15</v>
@@ -3362,25 +3362,25 @@
         <v>8</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H27" s="6" t="d">
         <v>2023-09-04</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N27" s="12">
         <v>1</v>
@@ -3421,10 +3421,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="D28" s="5" t="d">
         <v>2023-08-20</v>
@@ -3434,25 +3434,25 @@
         <v>5</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="6" t="d">
         <v>2023-09-04</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N28" s="12">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>2023-09-13</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U28" s="14">
         <v>3</v>
@@ -3493,10 +3493,10 @@
         <v>2023</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5" t="d">
         <v>2023-08-20</v>
@@ -3514,19 +3514,19 @@
         <v>2023-09-04</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N29" s="12">
         <v>1</v>
@@ -3547,7 +3547,7 @@
         <v>2023-09-14</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U29" s="8">
         <v>11</v>
@@ -3566,10 +3566,10 @@
         <v>2023</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5" t="d">
         <v>2023-09-01</v>
@@ -3581,25 +3581,25 @@
         <v>12</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="6" t="d">
         <v>2023-09-15</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N30" s="12">
         <v>1</v>
@@ -3639,7 +3639,7 @@
         <v>2023</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>11</v>
@@ -3654,25 +3654,25 @@
         <v>9</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H31" s="6" t="d">
         <v>2023-09-15</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N31" s="12">
         <v>1</v>
@@ -3712,7 +3712,7 @@
         <v>2023</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>21</v>
@@ -3733,19 +3733,19 @@
         <v>2023-09-15</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N32" s="12">
         <v>1</v>
@@ -3766,7 +3766,7 @@
         <v>2023-10-04</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U32" s="8">
         <v>4</v>
@@ -3785,10 +3785,10 @@
         <v>2023</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="5" t="d">
         <v>2023-09-29</v>
@@ -3800,25 +3800,25 @@
         <v>8</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="6" t="d">
         <v>2023-10-07</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N33" s="12">
         <v>1</v>
@@ -3857,40 +3857,40 @@
         <v>2023</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="5" t="d">
         <v>2023-10-05</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="8">
         <v>8</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H34" s="6" t="d">
         <v>2023-10-07</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N34" s="12">
         <v>1</v>
@@ -3929,16 +3929,16 @@
         <v>2023</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="6" t="d">
         <v>2023-10-05</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="8">
         <v>8</v>
@@ -3950,19 +3950,19 @@
         <v>2023-10-07</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N35" s="12">
         <v>1</v>
@@ -3977,16 +3977,16 @@
         <v>8</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V35" s="8">
         <v>0</v>
@@ -4001,40 +4001,40 @@
         <v>2023</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="5" t="d">
         <v>2023-10-12</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="8">
         <v>9</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H36" s="6" t="d">
         <v>2023-10-22</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N36" s="12">
         <v>1</v>
@@ -4049,7 +4049,7 @@
         <v>8</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S36" s="6" t="d">
         <v>2023-11-06</v>
@@ -4076,40 +4076,40 @@
         <v>2023</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="5" t="d">
         <v>2023-10-17</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="8">
         <v>6</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H37" s="6" t="d">
         <v>2023-10-22</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N37" s="12">
         <v>1</v>
@@ -4124,16 +4124,16 @@
         <v>7</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T37" s="9">
         <v>8</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V37" s="8">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>2023</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5" t="d">
         <v>2023-10-20</v>
@@ -4169,19 +4169,19 @@
         <v>2023-10-22</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N38" s="12">
         <v>1</v>
@@ -4202,7 +4202,7 @@
         <v>2023-11-03</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U38" s="8">
         <v>4</v>
@@ -4233,25 +4233,25 @@
         <v>7</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H39" s="6" t="d">
         <v>2024-09-06</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N39" s="12">
         <v>1</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.2">
@@ -4307,25 +4307,25 @@
         <v>9</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H40" s="6" t="d">
         <v>2024-09-06</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" s="12">
         <v>1</v>
@@ -4363,10 +4363,10 @@
         <v>2024</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="D41" s="4" t="d">
         <v>2024-08-24</v>
@@ -4376,25 +4376,25 @@
         <v>3</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H41" s="6" t="d">
         <v>2024-09-06</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N41" s="12">
         <v>1</v>
@@ -4415,7 +4415,7 @@
         <v>2024-09-11</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U41" s="8">
         <v>1</v>
@@ -4447,25 +4447,25 @@
         <v>9</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H42" s="6" t="d">
         <v>2024-09-27</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N42" s="12">
         <v>1</v>
@@ -4518,25 +4518,25 @@
         <v>8</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H43" s="6" t="d">
         <v>2024-09-27</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N43" s="12">
         <v>1</v>
@@ -4574,7 +4574,7 @@
         <v>2024</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>
@@ -4589,25 +4589,25 @@
         <v>5</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H44" s="6" t="d">
         <v>2024-09-27</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N44" s="12">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>2024-10-08</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U44" s="8">
         <v>6</v>

--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0F5CB93-419D-FE4D-9A7C-D0BF3E75C8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E245DC8E-60AD-8144-A82E-BB19ABA88C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="411" uniqueCount="176">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="410" uniqueCount="175">
   <si>
     <t>Nest</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-Nov-23	</t>
   </si>
   <si>
     <t>B</t>
@@ -1472,9 +1469,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
   <dimension ref="A1:AK145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1514,7 +1511,7 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1523,31 +1520,31 @@
         <v>77</v>
       </c>
       <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" t="s">
-        <v>100</v>
-      </c>
       <c r="O1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R1" t="s">
         <v>80</v>
@@ -1556,16 +1553,16 @@
         <v>81</v>
       </c>
       <c r="T1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
       </c>
       <c r="W1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X1" t="s">
         <v>26</v>
@@ -1576,7 +1573,7 @@
         <v>2018</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>56</v>
@@ -1589,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H2" s="6" t="d">
         <v>2018-09-03</v>
@@ -1601,13 +1598,13 @@
         <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N2" s="12">
         <v>1</v>
@@ -1640,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1648,10 +1645,10 @@
         <v>2018</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="d">
         <v>2018-08-18</v>
@@ -1661,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="6" t="d">
         <v>2018-09-03</v>
@@ -1679,7 +1676,7 @@
         <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N3" s="12">
         <v>1</v>
@@ -1712,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1733,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="6" t="d">
         <v>2018-09-13</v>
@@ -1751,7 +1748,7 @@
         <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N4" s="12">
         <v>1</v>
@@ -1784,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="X4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1805,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="6" t="d">
         <v>2018-09-17</v>
@@ -1817,13 +1814,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="N5" s="8">
         <v>2</v>
@@ -1856,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1864,10 +1861,10 @@
         <v>2018</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D6" s="3" t="d">
         <v>2018-09-15</v>
@@ -1877,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="6" t="d">
         <v>2018-09-17</v>
@@ -1895,7 +1892,7 @@
         <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N6" s="12">
         <v>1</v>
@@ -1946,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="6" t="d">
         <v>2018-09-17</v>
@@ -1964,7 +1961,7 @@
         <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N7" s="12">
         <v>1</v>
@@ -1997,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -2005,10 +2002,10 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="3" t="d">
         <v>2018-09-12</v>
@@ -2018,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="6" t="d">
         <v>2018-09-17</v>
@@ -2036,7 +2033,7 @@
         <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N8" s="12">
         <v>1</v>
@@ -2087,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="6" t="d">
         <v>2018-09-01</v>
@@ -2105,7 +2102,7 @@
         <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N9" s="12">
         <v>1</v>
@@ -2156,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="6" t="d">
         <v>2018-09-01</v>
@@ -2174,7 +2171,7 @@
         <v>82</v>
       </c>
       <c r="M10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N10" s="12">
         <v>1</v>
@@ -2207,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="X10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -2228,7 +2225,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="6" t="d">
         <v>2018-08-30</v>
@@ -2240,13 +2237,13 @@
         <v>82</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>82</v>
       </c>
       <c r="M11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N11" s="8">
         <v>2</v>
@@ -2279,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="X11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -2300,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" s="6" t="d">
         <v>2018-08-28</v>
@@ -2318,7 +2315,7 @@
         <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N12" s="12">
         <v>1</v>
@@ -2351,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="X12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2372,7 +2369,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="6" t="d">
         <v>2018-09-13</v>
@@ -2384,13 +2381,13 @@
         <v>82</v>
       </c>
       <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
         <v>139</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" t="s">
-        <v>140</v>
       </c>
       <c r="N13" s="8">
         <v>2</v>
@@ -2441,7 +2438,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="6" t="d">
         <v>2018-09-17</v>
@@ -2459,7 +2456,7 @@
         <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N14" s="12">
         <v>1</v>
@@ -2510,7 +2507,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H15" s="6" t="d">
         <v>2018-09-17</v>
@@ -2528,7 +2525,7 @@
         <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N15" s="12">
         <v>1</v>
@@ -2566,7 +2563,7 @@
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>67</v>
@@ -2579,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="6" t="d">
         <v>2018-09-22</v>
@@ -2591,13 +2588,13 @@
         <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N16" s="12">
         <v>2</v>
@@ -2646,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="6" t="d">
         <v>2018-09-22</v>
@@ -2658,13 +2655,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N17" s="8">
         <v>2</v>
@@ -2715,7 +2712,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H18" s="6" t="d">
         <v>2018-09-27</v>
@@ -2733,7 +2730,7 @@
         <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N18" s="12">
         <v>1</v>
@@ -2766,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -2787,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="6" t="d">
         <v>2018-09-15</v>
@@ -2799,13 +2796,13 @@
         <v>82</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N19" s="8">
         <v>2</v>
@@ -2856,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H20" s="6" t="d">
         <v>2018-09-22</v>
@@ -2874,7 +2871,7 @@
         <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N20" s="8">
         <v>1</v>
@@ -2925,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H21" s="6" t="d">
         <v>2018-09-19</v>
@@ -2937,13 +2934,13 @@
         <v>2018-09-30</v>
       </c>
       <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
         <v>169</v>
       </c>
-      <c r="L21" t="s">
-        <v>170</v>
-      </c>
       <c r="M21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N21" s="12">
         <v>3</v>
@@ -2994,7 +2991,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>82</v>
@@ -3012,7 +3009,7 @@
         <v>82</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N22" s="12">
         <v>0</v>
@@ -3045,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="X22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z22" s="8"/>
     </row>
@@ -3067,7 +3064,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>82</v>
@@ -3085,7 +3082,7 @@
         <v>82</v>
       </c>
       <c r="M23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
@@ -3118,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="X23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z23" s="8"/>
     </row>
@@ -3140,7 +3137,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>82</v>
@@ -3158,7 +3155,7 @@
         <v>82</v>
       </c>
       <c r="M24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N24" s="8">
         <v>0</v>
@@ -3191,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="X24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z24" s="8"/>
     </row>
@@ -3213,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>82</v>
@@ -3231,7 +3228,7 @@
         <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N25" s="12">
         <v>0</v>
@@ -3264,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="X25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z25" s="8"/>
     </row>
@@ -3288,7 +3285,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="6" t="d">
         <v>2023-09-04</v>
@@ -3306,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N26" s="12">
         <v>1</v>
@@ -3362,7 +3359,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="6" t="d">
         <v>2023-09-04</v>
@@ -3380,7 +3377,7 @@
         <v>82</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N27" s="12">
         <v>1</v>
@@ -3421,10 +3418,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="D28" s="5" t="d">
         <v>2023-08-20</v>
@@ -3434,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="6" t="d">
         <v>2023-09-04</v>
@@ -3452,7 +3449,7 @@
         <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N28" s="12">
         <v>1</v>
@@ -3526,7 +3523,7 @@
         <v>82</v>
       </c>
       <c r="M29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N29" s="12">
         <v>1</v>
@@ -3581,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="6" t="d">
         <v>2023-09-15</v>
@@ -3599,7 +3596,7 @@
         <v>82</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N30" s="12">
         <v>1</v>
@@ -3654,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H31" s="6" t="d">
         <v>2023-09-15</v>
@@ -3672,7 +3669,7 @@
         <v>82</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N31" s="12">
         <v>1</v>
@@ -3745,7 +3742,7 @@
         <v>82</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N32" s="12">
         <v>1</v>
@@ -3800,7 +3797,7 @@
         <v>8</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H33" s="6" t="d">
         <v>2023-10-07</v>
@@ -3818,7 +3815,7 @@
         <v>82</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N33" s="12">
         <v>1</v>
@@ -3872,7 +3869,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H34" s="6" t="d">
         <v>2023-10-07</v>
@@ -3890,7 +3887,7 @@
         <v>82</v>
       </c>
       <c r="M34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N34" s="12">
         <v>1</v>
@@ -3962,7 +3959,7 @@
         <v>82</v>
       </c>
       <c r="M35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N35" s="12">
         <v>1</v>
@@ -4016,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H36" s="6" t="d">
         <v>2023-10-22</v>
@@ -4034,7 +4031,7 @@
         <v>82</v>
       </c>
       <c r="M36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N36" s="12">
         <v>1</v>
@@ -4048,8 +4045,8 @@
       <c r="Q36" s="8">
         <v>8</v>
       </c>
-      <c r="R36" s="8" t="s">
-        <v>83</v>
+      <c r="R36" s="6" t="d">
+        <v>2023-11-05</v>
       </c>
       <c r="S36" s="6" t="d">
         <v>2023-11-06</v>
@@ -4085,13 +4082,13 @@
         <v>2023-10-17</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" s="8">
         <v>6</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H37" s="6" t="d">
         <v>2023-10-22</v>
@@ -4109,7 +4106,7 @@
         <v>82</v>
       </c>
       <c r="M37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N37" s="12">
         <v>1</v>
@@ -4181,7 +4178,7 @@
         <v>82</v>
       </c>
       <c r="M38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N38" s="12">
         <v>1</v>
@@ -4233,7 +4230,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H39" s="6" t="d">
         <v>2024-09-06</v>
@@ -4251,7 +4248,7 @@
         <v>82</v>
       </c>
       <c r="M39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N39" s="12">
         <v>1</v>
@@ -4307,7 +4304,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H40" s="6" t="d">
         <v>2024-09-06</v>
@@ -4325,7 +4322,7 @@
         <v>82</v>
       </c>
       <c r="M40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N40" s="12">
         <v>1</v>
@@ -4363,10 +4360,10 @@
         <v>2024</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D41" s="4" t="d">
         <v>2024-08-24</v>
@@ -4376,7 +4373,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H41" s="6" t="d">
         <v>2024-09-06</v>
@@ -4394,7 +4391,7 @@
         <v>82</v>
       </c>
       <c r="M41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N41" s="12">
         <v>1</v>
@@ -4447,7 +4444,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H42" s="6" t="d">
         <v>2024-09-27</v>
@@ -4465,7 +4462,7 @@
         <v>82</v>
       </c>
       <c r="M42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N42" s="12">
         <v>1</v>
@@ -4518,7 +4515,7 @@
         <v>8</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" s="6" t="d">
         <v>2024-09-27</v>
@@ -4536,7 +4533,7 @@
         <v>82</v>
       </c>
       <c r="M43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N43" s="12">
         <v>1</v>
@@ -4574,7 +4571,7 @@
         <v>2024</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>
@@ -4589,7 +4586,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H44" s="6" t="d">
         <v>2024-09-27</v>
@@ -4607,7 +4604,7 @@
         <v>82</v>
       </c>
       <c r="M44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N44" s="12">
         <v>1</v>

--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E245DC8E-60AD-8144-A82E-BB19ABA88C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{56F275F5-5961-FF48-B4D1-24EEE65C72E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1467,11 +1467,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,7 +1641,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2018</v>
       </c>
@@ -1712,7 +1713,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2018</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2018</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>2018</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2018</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>2018</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>2018</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>2018</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>2018</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>2018</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2018</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>2018</v>
       </c>
@@ -2625,7 +2626,7 @@
       </c>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>2018</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2018</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>2018</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>2018</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -3046,7 +3047,7 @@
       </c>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>2018</v>
       </c>
@@ -3119,7 +3120,7 @@
       </c>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>2018</v>
       </c>
@@ -3192,7 +3193,7 @@
       </c>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>2018</v>
       </c>
@@ -3265,7 +3266,7 @@
       </c>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>2023</v>
       </c>
@@ -3339,7 +3340,7 @@
       <c r="AE26" s="2"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>2023</v>
       </c>
@@ -3413,7 +3414,7 @@
       <c r="AE27" s="2"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>2023</v>
       </c>
@@ -3485,7 +3486,7 @@
       <c r="AE28" s="2"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2023</v>
       </c>
@@ -3558,7 +3559,7 @@
       <c r="AD29" s="2"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>2023</v>
       </c>
@@ -3631,7 +3632,7 @@
       <c r="AD30" s="2"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>2023</v>
       </c>
@@ -3704,7 +3705,7 @@
       <c r="AD31" s="2"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>2023</v>
       </c>
@@ -3777,7 +3778,7 @@
       <c r="AD32" s="2"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>2023</v>
       </c>
@@ -3849,7 +3850,7 @@
       </c>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>2023</v>
       </c>
@@ -3921,7 +3922,7 @@
       </c>
       <c r="AH34" s="1"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>2023</v>
       </c>
@@ -3993,7 +3994,7 @@
       </c>
       <c r="AH35" s="1"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>2023</v>
       </c>
@@ -4140,7 +4141,7 @@
       </c>
       <c r="AH37" s="1"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>2023</v>
       </c>
@@ -4212,7 +4213,7 @@
       </c>
       <c r="AH38" s="1"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>2024</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>2024</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>2024</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>2024</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>2024</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>2024</v>
       </c>
@@ -5036,7 +5037,19 @@
       <c r="B145" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK44" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}"/>
+  <autoFilter ref="A1:AK44" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Asynch"/>
+        <filter val="Synch"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="21">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{56F275F5-5961-FF48-B4D1-24EEE65C72E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5596FCF9-F79D-C545-97C0-93A4A839F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$44</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -1472,7 +1472,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1713,7 +1713,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2018</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2018</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>2018</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>2018</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>2018</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>2018</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>2018</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>2018</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2018</v>
       </c>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>2018</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2018</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>2018</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>2018</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>2018</v>
       </c>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>2018</v>
       </c>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>2018</v>
       </c>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>2023</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="AE26" s="2"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>2023</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="AD29" s="2"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>2023</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="AD30" s="2"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>2023</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="AD32" s="2"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>2023</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>2023</v>
       </c>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AH35" s="1"/>
     </row>
-    <row r="36" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>2023</v>
       </c>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="AH38" s="1"/>
     </row>
-    <row r="39" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>2024</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>2024</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>2024</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>2024</v>
       </c>
@@ -5044,11 +5044,6 @@
         <filter val="Synch"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="21">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5596FCF9-F79D-C545-97C0-93A4A839F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B83275-B2EA-634B-AA82-FBED35EE0F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -1471,8 +1472,8 @@
   <dimension ref="A1:AK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B83275-B2EA-634B-AA82-FBED35EE0F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F66DEED-B5FC-8C4D-B6FB-96972AE93DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="410" uniqueCount="175">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="414" uniqueCount="178">
   <si>
     <t>Nest</t>
   </si>
@@ -435,9 +434,6 @@
     <t>C2,C4,C6,K2,I3,I4,I5</t>
   </si>
   <si>
-    <t>W1,W3,W7,W9,AJ3,AJ5,AJ8</t>
-  </si>
-  <si>
     <t>W4,W5,AG1,AG3,AG5,AJ2,AJ4,AJ7</t>
   </si>
   <si>
@@ -565,6 +561,18 @@
   </si>
   <si>
     <t>Survival_60</t>
+  </si>
+  <si>
+    <t>Eggs_that_hatched</t>
+  </si>
+  <si>
+    <t>I6,I7,C1,C3,C5,C8</t>
+  </si>
+  <si>
+    <t>AJ2,AJ4,AG3,AG5,W5,</t>
+  </si>
+  <si>
+    <t>W1,W3,W7,W9,AJ3,AJ5,AJ8, W8</t>
   </si>
 </sst>
 </file>
@@ -723,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,6 +911,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1064,7 +1078,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1113,6 +1127,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1469,11 +1484,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AK145"/>
+  <dimension ref="A1:AL145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1484,19 +1499,20 @@
     <col min="6" max="7" width="6.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" customWidth="1"/>
-    <col min="21" max="21" width="7.5" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1"/>
-    <col min="23" max="23" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" customWidth="1"/>
+    <col min="22" max="22" width="7.5" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1528,49 +1544,52 @@
         <v>98</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M1" t="s">
         <v>96</v>
       </c>
       <c r="N1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>89</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>88</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>80</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>81</v>
-      </c>
-      <c r="T1" t="s">
-        <v>173</v>
       </c>
       <c r="U1" t="s">
         <v>172</v>
       </c>
       <c r="V1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" t="s">
         <v>2</v>
       </c>
-      <c r="W1" t="s">
-        <v>174</v>
-      </c>
       <c r="X1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>2018</v>
       </c>
@@ -1600,7 +1619,7 @@
         <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>82</v>
@@ -1608,21 +1627,19 @@
       <c r="M2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11"/>
+      <c r="O2" s="12">
         <v>1</v>
       </c>
-      <c r="O2" s="8">
+      <c r="P2" s="8">
         <v>0</v>
       </c>
-      <c r="P2" s="8">
+      <c r="Q2" s="8">
         <v>6</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="R2" s="13">
         <v>6</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="S2" s="8" t="s">
         <v>82</v>
       </c>
@@ -1632,17 +1649,20 @@
       <c r="U2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="8">
-        <v>0</v>
+      <c r="V2" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="W2" s="8">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2018</v>
       </c>
@@ -1660,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H3" s="6" t="d">
         <v>2018-09-03</v>
@@ -1678,13 +1698,10 @@
         <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N3" s="12">
+        <v>161</v>
+      </c>
+      <c r="O3" s="12">
         <v>1</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
       </c>
       <c r="P3" s="8">
         <v>0</v>
@@ -1692,8 +1709,8 @@
       <c r="Q3" s="8">
         <v>0</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>82</v>
+      <c r="R3" s="8">
+        <v>0</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>82</v>
@@ -1704,17 +1721,20 @@
       <c r="U3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="V3" s="8">
-        <v>0</v>
+      <c r="V3" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="W3" s="8">
         <v>0</v>
       </c>
-      <c r="X3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2018</v>
       </c>
@@ -1750,43 +1770,43 @@
         <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>167</v>
-      </c>
-      <c r="N4" s="12">
+        <v>166</v>
+      </c>
+      <c r="O4" s="12">
         <v>1</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>3</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>7</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>10</v>
       </c>
-      <c r="R4" s="10" t="d">
+      <c r="S4" s="10" t="d">
         <v>2018-10-01</v>
       </c>
-      <c r="S4" s="10" t="d">
+      <c r="T4" s="10" t="d">
         <v>2018-10-07</v>
       </c>
-      <c r="T4" s="8">
+      <c r="U4" s="8">
         <v>4</v>
-      </c>
-      <c r="U4" s="8">
-        <v>7</v>
       </c>
       <c r="V4" s="8">
         <v>7</v>
       </c>
       <c r="W4" s="8">
+        <v>7</v>
+      </c>
+      <c r="X4" s="8">
         <v>3</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2018</v>
       </c>
@@ -1816,57 +1836,58 @@
         <v>82</v>
       </c>
       <c r="K5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="N5" s="16"/>
+      <c r="O5" s="8">
         <v>2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <v>5</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>4</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="8">
         <v>9</v>
       </c>
-      <c r="R5" s="6" t="d">
+      <c r="S5" s="6" t="d">
         <v>2018-09-30</v>
       </c>
-      <c r="S5" s="6" t="d">
+      <c r="T5" s="6" t="d">
         <v>2018-09-02</v>
-      </c>
-      <c r="T5" s="8">
-        <v>3</v>
       </c>
       <c r="U5" s="8">
         <v>3</v>
       </c>
       <c r="V5" s="8">
+        <v>3</v>
+      </c>
+      <c r="W5" s="8">
         <v>5</v>
       </c>
-      <c r="W5" s="8">
+      <c r="X5" s="8">
         <v>2</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2018</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="D6" s="3" t="d">
         <v>2018-09-15</v>
@@ -1894,23 +1915,20 @@
         <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" s="12">
+        <v>156</v>
+      </c>
+      <c r="O6" s="12">
         <v>1</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>3</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <v>6</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <v>9</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="S6" s="8" t="s">
         <v>82</v>
       </c>
@@ -1920,14 +1938,17 @@
       <c r="U6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="V6" s="8">
-        <v>0</v>
+      <c r="V6" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="W6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>2018</v>
       </c>
@@ -1965,49 +1986,49 @@
       <c r="M7" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="12">
         <v>1</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>3</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>4</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>7</v>
       </c>
-      <c r="R7" s="6" t="d">
+      <c r="S7" s="6" t="d">
         <v>2018-09-23</v>
       </c>
-      <c r="S7" s="6" t="d">
+      <c r="T7" s="6" t="d">
         <v>2018-10-02</v>
-      </c>
-      <c r="T7" s="8">
-        <v>5</v>
       </c>
       <c r="U7" s="8">
         <v>5</v>
       </c>
       <c r="V7" s="8">
+        <v>5</v>
+      </c>
+      <c r="W7" s="8">
         <v>6</v>
       </c>
-      <c r="W7" s="8">
+      <c r="X7" s="8">
         <v>3</v>
       </c>
-      <c r="X7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="3" t="d">
         <v>2018-09-12</v>
@@ -2017,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="6" t="d">
         <v>2018-09-17</v>
@@ -2035,23 +2056,20 @@
         <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>154</v>
-      </c>
-      <c r="N8" s="12">
+        <v>153</v>
+      </c>
+      <c r="O8" s="12">
         <v>1</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>3</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <v>2</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>5</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="S8" s="8" t="s">
         <v>82</v>
       </c>
@@ -2061,14 +2079,17 @@
       <c r="U8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="V8" s="8">
-        <v>0</v>
+      <c r="V8" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="W8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>2018</v>
       </c>
@@ -2106,38 +2127,38 @@
       <c r="M9" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="12">
+      <c r="O9" s="12">
         <v>1</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>2</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <v>5</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>7</v>
       </c>
-      <c r="R9" s="10" t="d">
+      <c r="S9" s="10" t="d">
         <v>2018-08-31</v>
       </c>
-      <c r="S9" s="10" t="d">
+      <c r="T9" s="10" t="d">
         <v>2018-09-07</v>
-      </c>
-      <c r="T9" s="8">
-        <v>5</v>
       </c>
       <c r="U9" s="8">
         <v>5</v>
       </c>
       <c r="V9" s="8">
+        <v>5</v>
+      </c>
+      <c r="W9" s="8">
         <v>6</v>
       </c>
-      <c r="W9" s="8">
+      <c r="X9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>2018</v>
       </c>
@@ -2175,41 +2196,41 @@
       <c r="M10" t="s">
         <v>109</v>
       </c>
-      <c r="N10" s="12">
+      <c r="O10" s="12">
         <v>1</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <v>3</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>6</v>
       </c>
-      <c r="R10" s="6" t="d">
+      <c r="S10" s="6" t="d">
         <v>2018-09-01</v>
       </c>
-      <c r="S10" s="6" t="d">
+      <c r="T10" s="6" t="d">
         <v>2018-09-02</v>
-      </c>
-      <c r="T10" s="8">
-        <v>4</v>
       </c>
       <c r="U10" s="8">
         <v>4</v>
       </c>
       <c r="V10" s="8">
+        <v>4</v>
+      </c>
+      <c r="W10" s="8">
         <v>5</v>
       </c>
-      <c r="W10" s="8">
+      <c r="X10" s="8">
         <v>3</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>2018</v>
       </c>
@@ -2239,7 +2260,7 @@
         <v>82</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>82</v>
@@ -2247,41 +2268,41 @@
       <c r="M11" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="P11" s="8">
         <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>7</v>
       </c>
       <c r="Q11" s="8">
         <v>7</v>
       </c>
-      <c r="R11" s="10" t="d">
-        <v>2018-09-16</v>
+      <c r="R11" s="8">
+        <v>7</v>
       </c>
       <c r="S11" s="10" t="d">
         <v>2018-09-16</v>
       </c>
-      <c r="T11" s="8">
-        <v>10</v>
+      <c r="T11" s="10" t="d">
+        <v>2018-09-16</v>
       </c>
       <c r="U11" s="8">
         <v>10</v>
       </c>
       <c r="V11" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W11" s="8">
         <v>2</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>2018</v>
       </c>
@@ -2319,41 +2340,41 @@
       <c r="M12" t="s">
         <v>111</v>
       </c>
-      <c r="N12" s="12">
+      <c r="O12" s="12">
         <v>1</v>
       </c>
-      <c r="O12" s="8">
+      <c r="P12" s="8">
         <v>2</v>
-      </c>
-      <c r="P12" s="8">
-        <v>8</v>
       </c>
       <c r="Q12" s="8">
         <v>8</v>
       </c>
-      <c r="R12" s="10" t="d">
+      <c r="R12" s="8">
+        <v>8</v>
+      </c>
+      <c r="S12" s="10" t="d">
         <v>2018-08-28</v>
       </c>
-      <c r="S12" s="10" t="d">
+      <c r="T12" s="10" t="d">
         <v>2018-09-11</v>
-      </c>
-      <c r="T12" s="8">
-        <v>14</v>
       </c>
       <c r="U12" s="8">
         <v>14</v>
       </c>
       <c r="V12" s="8">
+        <v>14</v>
+      </c>
+      <c r="W12" s="8">
         <v>6</v>
       </c>
-      <c r="W12" s="8">
+      <c r="X12" s="8">
         <v>2</v>
       </c>
-      <c r="X12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>2018</v>
       </c>
@@ -2383,46 +2404,46 @@
         <v>82</v>
       </c>
       <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
         <v>138</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="O13" s="8">
         <v>2</v>
       </c>
-      <c r="O13" s="8">
+      <c r="P13" s="8">
         <v>7</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8">
         <v>3</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>10</v>
       </c>
-      <c r="R13" s="10" t="d">
+      <c r="S13" s="10" t="d">
         <v>2018-10-04</v>
       </c>
-      <c r="S13" s="10" t="d">
+      <c r="T13" s="10" t="d">
         <v>2018-10-07</v>
-      </c>
-      <c r="T13" s="8">
-        <v>9</v>
       </c>
       <c r="U13" s="8">
         <v>9</v>
       </c>
       <c r="V13" s="8">
+        <v>9</v>
+      </c>
+      <c r="W13" s="8">
         <v>5</v>
       </c>
-      <c r="W13" s="8">
+      <c r="X13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>2018</v>
       </c>
@@ -2460,38 +2481,38 @@
       <c r="M14" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="12">
+      <c r="O14" s="12">
         <v>1</v>
       </c>
-      <c r="O14" s="8">
+      <c r="P14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="8">
+      <c r="Q14" s="8">
         <v>5</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="R14" s="8">
         <v>8</v>
       </c>
-      <c r="R14" s="10" t="d">
+      <c r="S14" s="10" t="d">
         <v>2018-09-26</v>
       </c>
-      <c r="S14" s="10" t="d">
+      <c r="T14" s="10" t="d">
         <v>2018-10-09</v>
-      </c>
-      <c r="T14" s="8">
-        <v>12</v>
       </c>
       <c r="U14" s="8">
         <v>12</v>
       </c>
       <c r="V14" s="8">
+        <v>12</v>
+      </c>
+      <c r="W14" s="8">
         <v>3</v>
       </c>
-      <c r="W14" s="8">
+      <c r="X14" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2018</v>
       </c>
@@ -2529,43 +2550,43 @@
       <c r="M15" t="s">
         <v>113</v>
       </c>
-      <c r="N15" s="12">
+      <c r="O15" s="12">
         <v>1</v>
       </c>
-      <c r="O15" s="8">
+      <c r="P15" s="8">
         <v>3</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="8">
         <v>5</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>9</v>
       </c>
-      <c r="R15" s="10" t="d">
+      <c r="S15" s="10" t="d">
         <v>2018-09-25</v>
       </c>
-      <c r="S15" s="10" t="d">
+      <c r="T15" s="10" t="d">
         <v>2018-10-04</v>
-      </c>
-      <c r="T15" s="8">
-        <v>12</v>
       </c>
       <c r="U15" s="8">
         <v>12</v>
       </c>
       <c r="V15" s="8">
+        <v>12</v>
+      </c>
+      <c r="W15" s="8">
         <v>4</v>
       </c>
-      <c r="W15" s="8">
+      <c r="X15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>67</v>
@@ -2578,7 +2599,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="6" t="d">
         <v>2018-09-22</v>
@@ -2590,44 +2611,44 @@
         <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>160</v>
-      </c>
-      <c r="N16" s="12">
+        <v>159</v>
+      </c>
+      <c r="O16" s="12">
         <v>2</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P16" s="8">
         <v>5</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <v>1</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>6</v>
       </c>
-      <c r="R16" s="10" t="d">
+      <c r="S16" s="10" t="d">
         <v>2018-10-01</v>
       </c>
-      <c r="S16" s="10" t="d">
+      <c r="T16" s="10" t="d">
         <v>2018-10-05</v>
-      </c>
-      <c r="T16" s="8">
-        <v>5</v>
       </c>
       <c r="U16" s="8">
         <v>5</v>
       </c>
       <c r="V16" s="8">
+        <v>5</v>
+      </c>
+      <c r="W16" s="8">
         <v>4</v>
       </c>
-      <c r="W16" s="8"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>2018</v>
       </c>
@@ -2657,46 +2678,46 @@
         <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>136</v>
-      </c>
-      <c r="N17" s="8">
+        <v>135</v>
+      </c>
+      <c r="O17" s="8">
         <v>2</v>
       </c>
-      <c r="O17" s="8">
+      <c r="P17" s="8">
         <v>3</v>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="8">
         <v>4</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="8">
         <v>7</v>
       </c>
-      <c r="R17" s="10" t="d">
+      <c r="S17" s="10" t="d">
         <v>2018-09-30</v>
       </c>
-      <c r="S17" s="10" t="d">
+      <c r="T17" s="10" t="d">
         <v>2018-10-12</v>
-      </c>
-      <c r="T17" s="8">
-        <v>8</v>
       </c>
       <c r="U17" s="8">
         <v>8</v>
       </c>
       <c r="V17" s="8">
+        <v>8</v>
+      </c>
+      <c r="W17" s="8">
         <v>5</v>
       </c>
-      <c r="W17" s="8">
+      <c r="X17" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2018</v>
       </c>
@@ -2734,41 +2755,41 @@
       <c r="M18" t="s">
         <v>114</v>
       </c>
-      <c r="N18" s="12">
+      <c r="O18" s="12">
         <v>1</v>
       </c>
-      <c r="O18" s="8">
+      <c r="P18" s="8">
         <v>3</v>
       </c>
-      <c r="P18" s="8">
+      <c r="Q18" s="8">
         <v>9</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="R18" s="8">
         <v>11</v>
       </c>
-      <c r="R18" s="10" t="d">
+      <c r="S18" s="10" t="d">
         <v>2018-10-10</v>
       </c>
-      <c r="S18" s="10" t="d">
+      <c r="T18" s="10" t="d">
         <v>2018-10-14</v>
-      </c>
-      <c r="T18" s="8">
-        <v>10</v>
       </c>
       <c r="U18" s="8">
         <v>10</v>
       </c>
       <c r="V18" s="8">
+        <v>10</v>
+      </c>
+      <c r="W18" s="8">
         <v>5</v>
       </c>
-      <c r="W18" s="8">
+      <c r="X18" s="8">
         <v>0</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>2018</v>
       </c>
@@ -2798,46 +2819,46 @@
         <v>82</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" s="8">
+        <v>132</v>
+      </c>
+      <c r="O19" s="8">
         <v>2</v>
       </c>
-      <c r="O19" s="8">
+      <c r="P19" s="8">
         <v>0</v>
-      </c>
-      <c r="P19" s="8">
-        <v>6</v>
       </c>
       <c r="Q19" s="8">
         <v>6</v>
       </c>
-      <c r="R19" s="10" t="d">
+      <c r="R19" s="8">
+        <v>6</v>
+      </c>
+      <c r="S19" s="10" t="d">
         <v>2018-09-26</v>
       </c>
-      <c r="S19" s="10" t="d">
+      <c r="T19" s="10" t="d">
         <v>2018-10-08</v>
-      </c>
-      <c r="T19" s="8">
-        <v>12</v>
       </c>
       <c r="U19" s="8">
         <v>12</v>
       </c>
       <c r="V19" s="8">
+        <v>12</v>
+      </c>
+      <c r="W19" s="8">
         <v>5</v>
       </c>
-      <c r="W19" s="8">
+      <c r="X19" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
@@ -2875,38 +2896,38 @@
       <c r="M20" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="8">
+      <c r="O20" s="8">
         <v>1</v>
       </c>
-      <c r="O20" s="8">
+      <c r="P20" s="8">
         <v>3</v>
       </c>
-      <c r="P20" s="8">
+      <c r="Q20" s="8">
         <v>4</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="8">
         <v>7</v>
       </c>
-      <c r="R20" s="10" t="d">
+      <c r="S20" s="10" t="d">
         <v>2018-09-29</v>
       </c>
-      <c r="S20" s="10" t="d">
+      <c r="T20" s="10" t="d">
         <v>2018-10-08</v>
-      </c>
-      <c r="T20" s="8">
-        <v>9</v>
       </c>
       <c r="U20" s="8">
         <v>9</v>
       </c>
       <c r="V20" s="8">
+        <v>9</v>
+      </c>
+      <c r="W20" s="8">
         <v>6</v>
       </c>
-      <c r="W20" s="8">
+      <c r="X20" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>2018</v>
       </c>
@@ -2936,46 +2957,46 @@
         <v>2018-09-30</v>
       </c>
       <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
         <v>168</v>
-      </c>
-      <c r="L21" t="s">
-        <v>169</v>
       </c>
       <c r="M21" t="s">
         <v>116</v>
       </c>
-      <c r="N21" s="12">
+      <c r="O21" s="12">
         <v>3</v>
       </c>
-      <c r="O21" s="8">
+      <c r="P21" s="8">
         <v>1</v>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="8">
         <v>5</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="R21" s="8">
         <v>6</v>
       </c>
-      <c r="R21" s="10" t="d">
+      <c r="S21" s="10" t="d">
         <v>2018-10-01</v>
       </c>
-      <c r="S21" s="10" t="d">
+      <c r="T21" s="10" t="d">
         <v>2018-10-04</v>
       </c>
-      <c r="T21" s="8">
+      <c r="U21" s="8">
         <v>15</v>
       </c>
-      <c r="U21" s="8">
+      <c r="V21" s="8">
         <v>4</v>
       </c>
-      <c r="V21" s="8">
+      <c r="W21" s="8">
         <v>2</v>
       </c>
-      <c r="W21" s="8">
+      <c r="X21" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -3013,42 +3034,42 @@
       <c r="M22" t="s">
         <v>105</v>
       </c>
-      <c r="N22" s="12">
+      <c r="O22" s="12">
         <v>0</v>
       </c>
-      <c r="O22" s="8">
+      <c r="P22" s="8">
         <v>0</v>
-      </c>
-      <c r="P22" s="8">
-        <v>8</v>
       </c>
       <c r="Q22" s="8">
         <v>8</v>
       </c>
-      <c r="R22" s="6" t="d">
+      <c r="R22" s="8">
+        <v>8</v>
+      </c>
+      <c r="S22" s="6" t="d">
         <v>2018-10-14</v>
       </c>
-      <c r="S22" s="6" t="d">
+      <c r="T22" s="6" t="d">
         <v>2018-10-20</v>
       </c>
-      <c r="T22" s="8">
+      <c r="U22" s="8">
         <v>5</v>
-      </c>
-      <c r="U22" s="8">
-        <v>7</v>
       </c>
       <c r="V22" s="8">
         <v>7</v>
       </c>
       <c r="W22" s="8">
+        <v>7</v>
+      </c>
+      <c r="X22" s="8">
         <v>3</v>
       </c>
-      <c r="X22" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z22" s="8"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Y22" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA22" s="8"/>
+    </row>
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>2018</v>
       </c>
@@ -3086,42 +3107,42 @@
       <c r="M23" t="s">
         <v>106</v>
       </c>
-      <c r="N23" s="12">
+      <c r="O23" s="12">
         <v>0</v>
       </c>
-      <c r="O23" s="8">
+      <c r="P23" s="8">
         <v>0</v>
-      </c>
-      <c r="P23" s="8">
-        <v>6</v>
       </c>
       <c r="Q23" s="8">
         <v>6</v>
       </c>
-      <c r="R23" s="10" t="d">
+      <c r="R23" s="8">
+        <v>6</v>
+      </c>
+      <c r="S23" s="10" t="d">
         <v>2018-09-28</v>
       </c>
-      <c r="S23" s="10" t="d">
+      <c r="T23" s="10" t="d">
         <v>2018-10-01</v>
       </c>
-      <c r="T23" s="8">
+      <c r="U23" s="8">
         <v>3</v>
       </c>
-      <c r="U23" s="8">
+      <c r="V23" s="8">
         <v>4</v>
       </c>
-      <c r="V23" s="8">
+      <c r="W23" s="8">
         <v>6</v>
       </c>
-      <c r="W23" s="8">
+      <c r="X23" s="8">
         <v>4</v>
       </c>
-      <c r="X23" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Y23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA23" s="8"/>
+    </row>
+    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>2018</v>
       </c>
@@ -3159,42 +3180,42 @@
       <c r="M24" t="s">
         <v>103</v>
       </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
       <c r="O24" s="8">
         <v>0</v>
       </c>
       <c r="P24" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="8">
         <v>7</v>
       </c>
-      <c r="R24" s="6" t="d">
+      <c r="R24" s="8">
+        <v>7</v>
+      </c>
+      <c r="S24" s="6" t="d">
         <v>2018-09-20</v>
       </c>
-      <c r="S24" s="6" t="d">
+      <c r="T24" s="6" t="d">
         <v>2018-09-24</v>
       </c>
-      <c r="T24" s="8">
+      <c r="U24" s="8">
         <v>4</v>
       </c>
-      <c r="U24" s="8">
+      <c r="V24" s="8">
         <v>5</v>
       </c>
-      <c r="V24" s="8">
+      <c r="W24" s="8">
         <v>7</v>
       </c>
-      <c r="W24" s="8">
+      <c r="X24" s="8">
         <v>3</v>
       </c>
-      <c r="X24" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z24" s="8"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Y24" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA24" s="8"/>
+    </row>
+    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>2018</v>
       </c>
@@ -3232,42 +3253,42 @@
       <c r="M25" t="s">
         <v>108</v>
       </c>
-      <c r="N25" s="12">
+      <c r="O25" s="12">
         <v>0</v>
       </c>
-      <c r="O25" s="8">
+      <c r="P25" s="8">
         <v>0</v>
-      </c>
-      <c r="P25" s="8">
-        <v>7</v>
       </c>
       <c r="Q25" s="8">
         <v>7</v>
       </c>
-      <c r="R25" s="10" t="d">
+      <c r="R25" s="8">
+        <v>7</v>
+      </c>
+      <c r="S25" s="10" t="d">
         <v>2018-10-18</v>
       </c>
-      <c r="S25" s="10" t="d">
+      <c r="T25" s="10" t="d">
         <v>2018-10-20</v>
       </c>
-      <c r="T25" s="8">
+      <c r="U25" s="8">
         <v>4</v>
       </c>
-      <c r="U25" s="8">
+      <c r="V25" s="8">
         <v>3</v>
       </c>
-      <c r="V25" s="8">
+      <c r="W25" s="8">
         <v>6</v>
       </c>
-      <c r="W25" s="8">
+      <c r="X25" s="8">
         <v>2</v>
       </c>
-      <c r="X25" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z25" s="8"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Y25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>2023</v>
       </c>
@@ -3307,41 +3328,41 @@
       <c r="M26" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="12">
+      <c r="O26" s="12">
         <v>1</v>
       </c>
-      <c r="O26" s="8">
+      <c r="P26" s="8">
         <v>8</v>
       </c>
-      <c r="P26" s="8">
+      <c r="Q26" s="8">
         <v>0</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="R26" s="8">
         <v>8</v>
       </c>
-      <c r="R26" s="7" t="d">
+      <c r="S26" s="7" t="d">
         <v>2023-09-16</v>
       </c>
-      <c r="S26" s="7" t="d">
+      <c r="T26" s="7" t="d">
         <v>2023-09-20</v>
       </c>
-      <c r="T26" s="8">
+      <c r="U26" s="8">
         <v>6</v>
       </c>
-      <c r="U26" s="14">
+      <c r="V26" s="14">
         <v>5</v>
       </c>
-      <c r="V26" s="8">
+      <c r="W26" s="8">
         <v>4</v>
       </c>
-      <c r="W26" s="8">
+      <c r="X26" s="8">
         <v>1</v>
       </c>
-      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-      <c r="AH26" s="1"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AF26" s="2"/>
+      <c r="AI26" s="1"/>
+    </row>
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>2023</v>
       </c>
@@ -3381,49 +3402,49 @@
       <c r="M27" t="s">
         <v>118</v>
       </c>
-      <c r="N27" s="12">
+      <c r="O27" s="12">
         <v>1</v>
       </c>
-      <c r="O27" s="8">
+      <c r="P27" s="8">
         <v>5</v>
       </c>
-      <c r="P27" s="8">
+      <c r="Q27" s="8">
         <v>3</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="R27" s="8">
         <v>8</v>
-      </c>
-      <c r="R27" s="7" t="d">
-        <v>2023-09-16</v>
       </c>
       <c r="S27" s="7" t="d">
         <v>2023-09-16</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="7" t="d">
+        <v>2023-09-16</v>
+      </c>
+      <c r="U27" s="8">
         <v>10</v>
       </c>
-      <c r="U27" s="14">
+      <c r="V27" s="14">
         <v>1</v>
       </c>
-      <c r="V27" s="8">
+      <c r="W27" s="8">
         <v>1</v>
       </c>
-      <c r="W27" s="8">
+      <c r="X27" s="8">
         <v>0</v>
       </c>
-      <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AH27" s="1"/>
-    </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AF27" s="2"/>
+      <c r="AI27" s="1"/>
+    </row>
+    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>2023</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="D28" s="5" t="d">
         <v>2023-08-20</v>
@@ -3433,7 +3454,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H28" s="6" t="d">
         <v>2023-09-04</v>
@@ -3451,43 +3472,43 @@
         <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>151</v>
-      </c>
-      <c r="N28" s="12">
+        <v>150</v>
+      </c>
+      <c r="O28" s="12">
         <v>1</v>
       </c>
-      <c r="O28" s="8">
+      <c r="P28" s="8">
         <v>5</v>
       </c>
-      <c r="P28" s="8">
+      <c r="Q28" s="8">
         <v>0</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="R28" s="8">
         <v>5</v>
       </c>
-      <c r="R28" s="10" t="d">
+      <c r="S28" s="10" t="d">
         <v>2023-09-11</v>
       </c>
-      <c r="S28" s="10" t="d">
+      <c r="T28" s="10" t="d">
         <v>2023-09-13</v>
       </c>
-      <c r="T28" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="U28" s="14">
+      <c r="U28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V28" s="14">
         <v>3</v>
       </c>
-      <c r="V28" s="8">
+      <c r="W28" s="8">
         <v>4</v>
       </c>
-      <c r="W28" s="8">
+      <c r="X28" s="8">
         <v>0</v>
       </c>
-      <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AH28" s="1"/>
-    </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AF28" s="2"/>
+      <c r="AI28" s="1"/>
+    </row>
+    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2023</v>
       </c>
@@ -3527,40 +3548,40 @@
       <c r="M29" t="s">
         <v>119</v>
       </c>
-      <c r="N29" s="12">
+      <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="O29" s="8">
+      <c r="P29" s="8">
         <v>0</v>
-      </c>
-      <c r="P29" s="8">
-        <v>8</v>
       </c>
       <c r="Q29" s="8">
         <v>8</v>
       </c>
-      <c r="R29" s="10" t="d">
+      <c r="R29" s="8">
+        <v>8</v>
+      </c>
+      <c r="S29" s="10" t="d">
         <v>2023-09-04</v>
       </c>
-      <c r="S29" s="10" t="d">
+      <c r="T29" s="10" t="d">
         <v>2023-09-14</v>
       </c>
-      <c r="T29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="U29" s="8">
+      <c r="U29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V29" s="8">
         <v>11</v>
       </c>
-      <c r="V29" s="8">
+      <c r="W29" s="8">
         <v>5</v>
       </c>
-      <c r="W29" s="8">
+      <c r="X29" s="8">
         <v>4</v>
       </c>
-      <c r="AD29" s="2"/>
-      <c r="AH29" s="1"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AE29" s="2"/>
+      <c r="AI29" s="1"/>
+    </row>
+    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>2023</v>
       </c>
@@ -3600,40 +3621,40 @@
       <c r="M30" t="s">
         <v>120</v>
       </c>
-      <c r="N30" s="12">
+      <c r="O30" s="12">
         <v>1</v>
-      </c>
-      <c r="O30" s="8">
-        <v>5</v>
       </c>
       <c r="P30" s="8">
         <v>5</v>
       </c>
       <c r="Q30" s="8">
+        <v>5</v>
+      </c>
+      <c r="R30" s="8">
         <v>10</v>
       </c>
-      <c r="R30" s="10" t="d">
+      <c r="S30" s="10" t="d">
         <v>2023-09-30</v>
       </c>
-      <c r="S30" s="10" t="d">
+      <c r="T30" s="10" t="d">
         <v>2023-10-04</v>
       </c>
-      <c r="T30" s="8">
+      <c r="U30" s="8">
         <v>4</v>
       </c>
-      <c r="U30" s="8">
+      <c r="V30" s="8">
         <v>5</v>
       </c>
-      <c r="V30" s="8">
+      <c r="W30" s="8">
         <v>3</v>
       </c>
-      <c r="W30" s="8">
+      <c r="X30" s="8">
         <v>0</v>
       </c>
-      <c r="AD30" s="2"/>
-      <c r="AH30" s="1"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AE30" s="2"/>
+      <c r="AI30" s="1"/>
+    </row>
+    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>2023</v>
       </c>
@@ -3673,40 +3694,40 @@
       <c r="M31" t="s">
         <v>121</v>
       </c>
-      <c r="N31" s="12">
+      <c r="O31" s="12">
         <v>1</v>
       </c>
-      <c r="O31" s="8">
+      <c r="P31" s="8">
         <v>6</v>
       </c>
-      <c r="P31" s="8">
+      <c r="Q31" s="8">
         <v>3</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="R31" s="8">
         <v>9</v>
       </c>
-      <c r="R31" s="7" t="d">
+      <c r="S31" s="7" t="d">
         <v>2023-10-03</v>
       </c>
-      <c r="S31" s="7" t="d">
+      <c r="T31" s="7" t="d">
         <v>2023-10-08</v>
       </c>
-      <c r="T31" s="8">
+      <c r="U31" s="8">
         <v>9</v>
       </c>
-      <c r="U31" s="8">
+      <c r="V31" s="8">
         <v>6</v>
       </c>
-      <c r="V31" s="8">
+      <c r="W31" s="8">
         <v>3</v>
       </c>
-      <c r="W31" s="8">
+      <c r="X31" s="8">
         <v>0</v>
       </c>
-      <c r="AD31" s="2"/>
-      <c r="AH31" s="1"/>
-    </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE31" s="2"/>
+      <c r="AI31" s="1"/>
+    </row>
+    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>2023</v>
       </c>
@@ -3746,40 +3767,40 @@
       <c r="M32" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="12">
+      <c r="O32" s="12">
         <v>1</v>
       </c>
-      <c r="O32" s="8">
+      <c r="P32" s="8">
         <v>0</v>
-      </c>
-      <c r="P32" s="8">
-        <v>9</v>
       </c>
       <c r="Q32" s="8">
         <v>9</v>
       </c>
-      <c r="R32" s="7" t="d">
+      <c r="R32" s="8">
+        <v>9</v>
+      </c>
+      <c r="S32" s="7" t="d">
         <v>2023-10-02</v>
       </c>
-      <c r="S32" s="7" t="d">
+      <c r="T32" s="7" t="d">
         <v>2023-10-04</v>
       </c>
-      <c r="T32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="U32" s="8">
+      <c r="U32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V32" s="8">
         <v>4</v>
       </c>
-      <c r="V32" s="8">
+      <c r="W32" s="8">
         <v>7</v>
       </c>
-      <c r="W32" s="8">
+      <c r="X32" s="8">
         <v>0</v>
       </c>
-      <c r="AD32" s="2"/>
-      <c r="AH32" s="1"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AE32" s="2"/>
+      <c r="AI32" s="1"/>
+    </row>
+    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>2023</v>
       </c>
@@ -3819,39 +3840,39 @@
       <c r="M33" t="s">
         <v>123</v>
       </c>
-      <c r="N33" s="12">
+      <c r="O33" s="12">
         <v>1</v>
       </c>
-      <c r="O33" s="8">
+      <c r="P33" s="8">
         <v>5</v>
       </c>
-      <c r="P33" s="8">
+      <c r="Q33" s="8">
         <v>2</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="R33" s="8">
         <v>7</v>
       </c>
-      <c r="R33" s="6" t="d">
+      <c r="S33" s="6" t="d">
         <v>2023-10-25</v>
       </c>
-      <c r="S33" s="6" t="d">
+      <c r="T33" s="6" t="d">
         <v>2023-10-27</v>
       </c>
-      <c r="T33" s="8">
+      <c r="U33" s="8">
         <v>4</v>
       </c>
-      <c r="U33" s="8">
+      <c r="V33" s="8">
         <v>3</v>
       </c>
-      <c r="V33" s="8">
+      <c r="W33" s="8">
         <v>4</v>
       </c>
-      <c r="W33" s="8">
+      <c r="X33" s="8">
         <v>0</v>
       </c>
-      <c r="AH33" s="1"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI33" s="1"/>
+    </row>
+    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>2023</v>
       </c>
@@ -3891,39 +3912,39 @@
       <c r="M34" t="s">
         <v>124</v>
       </c>
-      <c r="N34" s="12">
+      <c r="O34" s="12">
         <v>1</v>
       </c>
-      <c r="O34" s="8">
+      <c r="P34" s="8">
         <v>5</v>
       </c>
-      <c r="P34" s="8">
+      <c r="Q34" s="8">
         <v>3</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="R34" s="8">
         <v>8</v>
       </c>
-      <c r="R34" s="6" t="d">
+      <c r="S34" s="6" t="d">
         <v>2023-10-18</v>
       </c>
-      <c r="S34" s="6" t="d">
+      <c r="T34" s="6" t="d">
         <v>2023-10-29</v>
-      </c>
-      <c r="T34" s="8">
-        <v>12</v>
       </c>
       <c r="U34" s="8">
         <v>12</v>
       </c>
       <c r="V34" s="8">
+        <v>12</v>
+      </c>
+      <c r="W34" s="8">
         <v>5</v>
       </c>
-      <c r="W34" s="8">
+      <c r="X34" s="8">
         <v>1</v>
       </c>
-      <c r="AH34" s="1"/>
-    </row>
-    <row r="35" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI34" s="1"/>
+    </row>
+    <row r="35" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>2023</v>
       </c>
@@ -3963,20 +3984,17 @@
       <c r="M35" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="12">
+      <c r="O35" s="12">
         <v>1</v>
       </c>
-      <c r="O35" s="8">
+      <c r="P35" s="8">
         <v>0</v>
-      </c>
-      <c r="P35" s="8">
-        <v>8</v>
       </c>
       <c r="Q35" s="8">
         <v>8</v>
       </c>
-      <c r="R35" s="9" t="s">
-        <v>82</v>
+      <c r="R35" s="8">
+        <v>8</v>
       </c>
       <c r="S35" s="9" t="s">
         <v>82</v>
@@ -3984,18 +4002,21 @@
       <c r="T35" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="U35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="V35" s="8">
-        <v>0</v>
+      <c r="U35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="W35" s="8">
         <v>0</v>
       </c>
-      <c r="AH35" s="1"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="1"/>
+    </row>
+    <row r="36" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>2023</v>
       </c>
@@ -4035,42 +4056,42 @@
       <c r="M36" t="s">
         <v>126</v>
       </c>
-      <c r="N36" s="12">
+      <c r="O36" s="12">
         <v>1</v>
       </c>
-      <c r="O36" s="8">
+      <c r="P36" s="8">
         <v>3</v>
       </c>
-      <c r="P36" s="8">
+      <c r="Q36" s="8">
         <v>5</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="R36" s="8">
         <v>8</v>
       </c>
-      <c r="R36" s="6" t="d">
+      <c r="S36" s="6" t="d">
         <v>2023-11-05</v>
       </c>
-      <c r="S36" s="6" t="d">
+      <c r="T36" s="6" t="d">
         <v>2023-11-06</v>
       </c>
-      <c r="T36" s="8">
+      <c r="U36" s="8">
         <v>4</v>
       </c>
-      <c r="U36" s="8">
+      <c r="V36" s="8">
         <v>2</v>
       </c>
-      <c r="V36" s="8">
+      <c r="W36" s="8">
         <v>4</v>
       </c>
-      <c r="W36" s="8">
+      <c r="X36" s="8">
         <v>0</v>
       </c>
-      <c r="Y36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AH36" s="1"/>
-      <c r="AK36" s="2"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="Z36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AI36" s="1"/>
+      <c r="AL36" s="2"/>
+    </row>
+    <row r="37" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>2023</v>
       </c>
@@ -4110,39 +4131,39 @@
       <c r="M37" t="s">
         <v>127</v>
       </c>
-      <c r="N37" s="12">
+      <c r="O37" s="12">
         <v>1</v>
       </c>
-      <c r="O37" s="8">
+      <c r="P37" s="8">
         <v>4</v>
       </c>
-      <c r="P37" s="8">
+      <c r="Q37" s="8">
         <v>3</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="R37" s="8">
         <v>7</v>
       </c>
-      <c r="R37" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="S37" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U37" s="9">
         <v>8</v>
       </c>
-      <c r="U37" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="V37" s="8">
-        <v>0</v>
+      <c r="V37" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="W37" s="8">
         <v>0</v>
       </c>
-      <c r="AH37" s="1"/>
-    </row>
-    <row r="38" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="X37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="1"/>
+    </row>
+    <row r="38" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>2023</v>
       </c>
@@ -4182,11 +4203,8 @@
       <c r="M38" t="s">
         <v>128</v>
       </c>
-      <c r="N38" s="12">
+      <c r="O38" s="12">
         <v>1</v>
-      </c>
-      <c r="O38" s="8">
-        <v>8</v>
       </c>
       <c r="P38" s="8">
         <v>8</v>
@@ -4194,27 +4212,30 @@
       <c r="Q38" s="8">
         <v>8</v>
       </c>
-      <c r="R38" s="6" t="d">
+      <c r="R38" s="8">
+        <v>8</v>
+      </c>
+      <c r="S38" s="6" t="d">
         <v>2023-10-31</v>
       </c>
-      <c r="S38" s="6" t="d">
+      <c r="T38" s="6" t="d">
         <v>2023-11-03</v>
       </c>
-      <c r="T38" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="U38" s="8">
+      <c r="U38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V38" s="8">
         <v>4</v>
       </c>
-      <c r="V38" s="8">
+      <c r="W38" s="8">
         <v>1</v>
       </c>
-      <c r="W38" s="8">
+      <c r="X38" s="8">
         <v>0</v>
       </c>
-      <c r="AH38" s="1"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI38" s="1"/>
+    </row>
+    <row r="39" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>2024</v>
       </c>
@@ -4252,41 +4273,44 @@
       <c r="M39" t="s">
         <v>129</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" t="s">
+        <v>175</v>
+      </c>
+      <c r="O39" s="12">
         <v>1</v>
       </c>
-      <c r="O39" s="8">
+      <c r="P39" s="8">
         <v>5</v>
       </c>
-      <c r="P39" s="8">
+      <c r="Q39" s="8">
         <v>2</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="R39" s="8">
         <v>7</v>
       </c>
-      <c r="R39" s="6" t="d">
+      <c r="S39" s="6" t="d">
         <v>2024-09-10</v>
       </c>
-      <c r="S39" s="6" t="d">
+      <c r="T39" s="6" t="d">
         <v>2024-09-11</v>
-      </c>
-      <c r="T39" s="8">
-        <v>2</v>
       </c>
       <c r="U39" s="8">
         <v>2</v>
       </c>
       <c r="V39" s="8">
+        <v>2</v>
+      </c>
+      <c r="W39" s="8">
         <v>6</v>
       </c>
-      <c r="W39" s="8">
+      <c r="X39" s="8">
         <v>0</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>2024</v>
       </c>
@@ -4326,46 +4350,49 @@
       <c r="M40" t="s">
         <v>130</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" t="s">
+        <v>130</v>
+      </c>
+      <c r="O40" s="12">
         <v>1</v>
       </c>
-      <c r="O40" s="8">
+      <c r="P40" s="8">
         <v>4</v>
       </c>
-      <c r="P40" s="8">
+      <c r="Q40" s="8">
         <v>3</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="R40" s="8">
         <v>7</v>
       </c>
-      <c r="R40" s="7" t="d">
+      <c r="S40" s="7" t="d">
         <v>2024-09-10</v>
       </c>
-      <c r="S40" s="7" t="d">
+      <c r="T40" s="7" t="d">
         <v>2024-09-17</v>
       </c>
-      <c r="T40" s="8">
+      <c r="U40" s="8">
         <v>8</v>
-      </c>
-      <c r="U40" s="8">
-        <v>7</v>
       </c>
       <c r="V40" s="8">
         <v>7</v>
       </c>
       <c r="W40" s="8">
+        <v>7</v>
+      </c>
+      <c r="X40" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>2024</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="D41" s="4" t="d">
         <v>2024-08-24</v>
@@ -4375,7 +4402,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H41" s="6" t="d">
         <v>2024-09-06</v>
@@ -4393,40 +4420,40 @@
         <v>82</v>
       </c>
       <c r="M41" t="s">
-        <v>147</v>
-      </c>
-      <c r="N41" s="12">
+        <v>146</v>
+      </c>
+      <c r="O41" s="12">
         <v>1</v>
-      </c>
-      <c r="O41" s="8">
-        <v>2</v>
       </c>
       <c r="P41" s="8">
         <v>2</v>
       </c>
       <c r="Q41" s="8">
+        <v>2</v>
+      </c>
+      <c r="R41" s="8">
         <v>4</v>
-      </c>
-      <c r="R41" s="6" t="d">
-        <v>2024-09-11</v>
       </c>
       <c r="S41" s="6" t="d">
         <v>2024-09-11</v>
       </c>
-      <c r="T41" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="U41" s="8">
+      <c r="T41" s="6" t="d">
+        <v>2024-09-11</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V41" s="8">
         <v>1</v>
       </c>
-      <c r="V41" s="8">
+      <c r="W41" s="8">
         <v>3</v>
       </c>
-      <c r="W41" s="8">
+      <c r="X41" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>2024</v>
       </c>
@@ -4464,40 +4491,40 @@
         <v>82</v>
       </c>
       <c r="M42" t="s">
-        <v>131</v>
-      </c>
-      <c r="N42" s="12">
+        <v>177</v>
+      </c>
+      <c r="O42" s="12">
         <v>1</v>
       </c>
-      <c r="O42" s="8">
+      <c r="P42" s="8">
         <v>3</v>
       </c>
-      <c r="P42" s="8">
+      <c r="Q42" s="8">
         <v>5</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="R42" s="8">
         <v>8</v>
-      </c>
-      <c r="R42" s="6" t="d">
-        <v>2024-10-01</v>
       </c>
       <c r="S42" s="6" t="d">
         <v>2024-10-01</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T42" s="6" t="d">
+        <v>2024-10-01</v>
+      </c>
+      <c r="U42" s="8">
         <v>2</v>
       </c>
-      <c r="U42" s="8">
+      <c r="V42" s="8">
         <v>1</v>
       </c>
-      <c r="V42" s="8">
+      <c r="W42" s="8">
         <v>4</v>
       </c>
-      <c r="W42" s="8">
+      <c r="X42" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>2024</v>
       </c>
@@ -4535,45 +4562,48 @@
         <v>82</v>
       </c>
       <c r="M43" t="s">
-        <v>132</v>
-      </c>
-      <c r="N43" s="12">
+        <v>131</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O43" s="12">
         <v>1</v>
       </c>
-      <c r="O43" s="8">
+      <c r="P43" s="8">
         <v>5</v>
       </c>
-      <c r="P43" s="8">
+      <c r="Q43" s="8">
         <v>3</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="R43" s="8">
         <v>8</v>
       </c>
-      <c r="R43" s="6" t="d">
+      <c r="S43" s="6" t="d">
         <v>2024-09-28</v>
       </c>
-      <c r="S43" s="6" t="d">
+      <c r="T43" s="6" t="d">
         <v>2024-10-09</v>
       </c>
-      <c r="T43" s="8">
+      <c r="U43" s="8">
         <v>11</v>
       </c>
-      <c r="U43" s="8">
+      <c r="V43" s="8">
         <v>12</v>
       </c>
-      <c r="V43" s="8">
+      <c r="W43" s="8">
         <v>6</v>
       </c>
-      <c r="W43" s="8">
+      <c r="X43" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>2024</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>
@@ -4588,7 +4618,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H44" s="6" t="d">
         <v>2024-09-27</v>
@@ -4606,445 +4636,471 @@
         <v>82</v>
       </c>
       <c r="M44" t="s">
-        <v>148</v>
-      </c>
-      <c r="N44" s="12">
+        <v>147</v>
+      </c>
+      <c r="O44" s="12">
         <v>1</v>
       </c>
-      <c r="O44" s="8">
+      <c r="P44" s="8">
         <v>3</v>
       </c>
-      <c r="P44" s="8">
+      <c r="Q44" s="8">
         <v>2</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="R44" s="8">
         <v>5</v>
       </c>
-      <c r="R44" s="6" t="d">
+      <c r="S44" s="6" t="d">
         <v>2024-10-03</v>
       </c>
-      <c r="S44" s="6" t="d">
+      <c r="T44" s="6" t="d">
         <v>2024-10-08</v>
       </c>
-      <c r="T44" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="U44" s="8">
+      <c r="U44" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V44" s="8">
         <v>6</v>
       </c>
-      <c r="V44" s="8">
+      <c r="W44" s="8">
         <v>3</v>
       </c>
-      <c r="W44" s="8">
+      <c r="X44" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="E48" s="2"/>
-      <c r="W48" s="2"/>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="2"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
       <c r="E49" s="2"/>
-      <c r="W49" s="2"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="2"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="E50" s="2"/>
-      <c r="W50" s="2"/>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="2"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="E51" s="2"/>
-      <c r="W51" s="2"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="2"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="E52" s="2"/>
-      <c r="W52" s="2"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="2"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="E53" s="2"/>
-      <c r="W53" s="2"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="2"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="E54" s="2"/>
-      <c r="W54" s="2"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="2"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="E55" s="2"/>
-      <c r="W55" s="2"/>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="2"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="E56" s="2"/>
-      <c r="W56" s="2"/>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="2"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="E57" s="2"/>
-      <c r="W57" s="2"/>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="2"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="E58" s="2"/>
-      <c r="W58" s="2"/>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="2"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="E59" s="2"/>
-      <c r="W59" s="2"/>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="2"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="E60" s="2"/>
-      <c r="W60" s="2"/>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="2"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="E61" s="2"/>
-      <c r="W61" s="2"/>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="2"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="E62" s="2"/>
-      <c r="W62" s="2"/>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="2"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="E63" s="2"/>
-      <c r="W63" s="2"/>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="2"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
-      <c r="W64" s="2"/>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="2"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
-      <c r="W65" s="2"/>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="2"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
-      <c r="W66" s="2"/>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="2"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
-      <c r="W67" s="2"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="2"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
-      <c r="W68" s="2"/>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="2"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
-      <c r="W69" s="2"/>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="2"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
-      <c r="W70" s="2"/>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="2"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
-      <c r="W71" s="2"/>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="2"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
-      <c r="W72" s="2"/>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="2"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
-      <c r="W73" s="2"/>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="2"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
-      <c r="W74" s="2"/>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="2"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
-      <c r="W75" s="2"/>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="2"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
-      <c r="W76" s="2"/>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="2"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
-      <c r="W77" s="2"/>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="2"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
-      <c r="W78" s="2"/>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X78" s="2"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
-      <c r="W79" s="2"/>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X79" s="2"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
-      <c r="W80" s="2"/>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
-      <c r="W81" s="2"/>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="2"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
-      <c r="W82" s="2"/>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="2"/>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
-      <c r="W83" s="2"/>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="2"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
-      <c r="W84" s="2"/>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="2"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
-      <c r="W85" s="2"/>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="2"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
-      <c r="W86" s="2"/>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="2"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
-      <c r="W87" s="2"/>
-    </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="2"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
-      <c r="W88" s="2"/>
-    </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="2"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
-      <c r="W89" s="2"/>
-    </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="2"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
-      <c r="W90" s="2"/>
-    </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="2"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
-      <c r="W91" s="2"/>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="2"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
-      <c r="W92" s="2"/>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="2"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
-      <c r="W93" s="2"/>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="2"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
-      <c r="W94" s="2"/>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="2"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
-      <c r="W95" s="2"/>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="2"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
-      <c r="W96" s="2"/>
-    </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="2"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
-      <c r="W97" s="2"/>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="2"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
-      <c r="W98" s="2"/>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="2"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
-      <c r="W99" s="2"/>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="2"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="G114" s="2"/>
-      <c r="R114" s="2"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U114" s="2"/>
+    </row>
+    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
-      <c r="Q123" s="2"/>
-    </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N123" s="2"/>
+      <c r="R123" s="2"/>
+    </row>
+    <row r="124" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
-      <c r="Q124" s="2"/>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N124" s="2"/>
+      <c r="R124" s="2"/>
+    </row>
+    <row r="125" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
-      <c r="Q125" s="2"/>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N125" s="2"/>
+      <c r="R125" s="2"/>
+    </row>
+    <row r="126" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
-      <c r="Q126" s="2"/>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N126" s="2"/>
+      <c r="R126" s="2"/>
+    </row>
+    <row r="127" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
-      <c r="Q127" s="2"/>
-    </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N127" s="2"/>
+      <c r="R127" s="2"/>
+    </row>
+    <row r="128" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-      <c r="Q128" s="2"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N128" s="2"/>
+      <c r="R128" s="2"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
-      <c r="Q129" s="2"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N129" s="2"/>
+      <c r="R129" s="2"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
-      <c r="Q130" s="2"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N130" s="2"/>
+      <c r="R130" s="2"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK44" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
+  <autoFilter ref="A1:AL44" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2018"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Asynch"/>
         <filter val="Synch"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+        <dateGroupItem year="2023" dateTimeGrouping="year"/>
+        <dateGroupItem year="2018" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="2"/>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Compiled_synchrony_experiment_data.xlsx
+++ b/Compiled_synchrony_experiment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F66DEED-B5FC-8C4D-B6FB-96972AE93DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{06635A21-233F-9A4B-9BB2-F42160E22023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1483,12 +1483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1589,7 +1588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>2018</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2018</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2018</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2018</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>2018</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2018</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>2018</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>2018</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>2018</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>2018</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2018</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>2018</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>2018</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>2018</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -3069,7 +3068,7 @@
       </c>
       <c r="AA22" s="8"/>
     </row>
-    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>2018</v>
       </c>
@@ -3142,7 +3141,7 @@
       </c>
       <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>2018</v>
       </c>
@@ -3215,7 +3214,7 @@
       </c>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>2018</v>
       </c>
@@ -3288,7 +3287,7 @@
       </c>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>2023</v>
       </c>
@@ -3362,7 +3361,7 @@
       <c r="AF26" s="2"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>2023</v>
       </c>
@@ -3436,7 +3435,7 @@
       <c r="AF27" s="2"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>2023</v>
       </c>
@@ -3508,7 +3507,7 @@
       <c r="AF28" s="2"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>2023</v>
       </c>
@@ -3581,7 +3580,7 @@
       <c r="AE29" s="2"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>2023</v>
       </c>
@@ -3654,7 +3653,7 @@
       <c r="AE30" s="2"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>2023</v>
       </c>
@@ -3727,7 +3726,7 @@
       <c r="AE31" s="2"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>2023</v>
       </c>
@@ -3800,7 +3799,7 @@
       <c r="AE32" s="2"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>2023</v>
       </c>
@@ -3872,7 +3871,7 @@
       </c>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>2023</v>
       </c>
@@ -3944,7 +3943,7 @@
       </c>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>2023</v>
       </c>
@@ -4016,7 +4015,7 @@
       </c>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>2023</v>
       </c>
@@ -4091,7 +4090,7 @@
       <c r="AI36" s="1"/>
       <c r="AL36" s="2"/>
     </row>
-    <row r="37" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>2023</v>
       </c>
@@ -4163,7 +4162,7 @@
       </c>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>2023</v>
       </c>
@@ -4235,7 +4234,7 @@
       </c>
       <c r="AI38" s="1"/>
     </row>
-    <row r="39" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>2024</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>2024</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>2024</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>2024</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>2024</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>2024</v>
       </c>
@@ -5076,32 +5075,7 @@
       <c r="B145" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL44" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2018"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Asynch"/>
-        <filter val="Synch"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <dateGroupItem year="2024" dateTimeGrouping="year"/>
-        <dateGroupItem year="2023" dateTimeGrouping="year"/>
-        <dateGroupItem year="2018" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="2"/>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AL44" xr:uid="{1169386B-F813-034E-AA1A-A149472682C8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>